--- a/Gestion/Mega_planif.xlsx
+++ b/Gestion/Mega_planif.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="231">
   <si>
     <t>Objectif</t>
   </si>
@@ -703,9 +703,6 @@
     <t>3.T.7.2</t>
   </si>
   <si>
-    <t>3.T.7.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Facilité des connections </t>
   </si>
   <si>
@@ -719,6 +716,9 @@
   </si>
   <si>
     <t>+/- 2 actions</t>
+  </si>
+  <si>
+    <t>À déterminer</t>
   </si>
 </sst>
 </file>
@@ -1243,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z510"/>
+  <dimension ref="A1:Z509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
+      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2433,7 +2433,9 @@
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2464,7 +2466,9 @@
       <c r="E36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2495,7 +2499,9 @@
       <c r="E37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2526,7 +2532,9 @@
       <c r="E38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -2588,7 +2596,9 @@
       <c r="E40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2619,7 +2629,9 @@
       <c r="E41" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2650,7 +2662,9 @@
       <c r="E42" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2681,7 +2695,9 @@
       <c r="E43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2749,7 +2765,9 @@
       <c r="E45" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3420,10 +3438,10 @@
         <v>160</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>67</v>
@@ -3457,7 +3475,9 @@
       <c r="E65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -3733,13 +3753,13 @@
         <v>166</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F73" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="G73" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>228</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>36</v>
@@ -3874,7 +3894,9 @@
       <c r="E77" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -3936,7 +3958,9 @@
       <c r="E79" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -3967,7 +3991,9 @@
       <c r="E80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -3998,7 +4024,9 @@
       <c r="E81" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -4193,15 +4221,18 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="2"/>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F87" s="2"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -4224,13 +4255,13 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
-      <c r="B88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -4257,20 +4288,27 @@
     <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E89" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+      <c r="J89" s="2">
+        <v>2</v>
+      </c>
+      <c r="K89" s="2">
+        <v>4</v>
+      </c>
+      <c r="L89" s="2">
+        <f>K89*J89</f>
+        <v>8</v>
+      </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -4291,10 +4329,10 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -4304,11 +4342,11 @@
         <v>2</v>
       </c>
       <c r="K90" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L90" s="2">
-        <f>K90*J90</f>
-        <v>8</v>
+        <f t="shared" ref="L90:L91" si="6">K90*J90</f>
+        <v>2</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4330,10 +4368,10 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -4346,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" ref="L91:L92" si="6">K91*J91</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="M91" s="2"/>
@@ -4367,27 +4405,20 @@
     <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="C92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="J92" s="2">
-        <v>2</v>
-      </c>
-      <c r="K92" s="2">
-        <v>1</v>
-      </c>
-      <c r="L92" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -4406,20 +4437,27 @@
     <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E93" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+      <c r="J93" s="2">
+        <v>2</v>
+      </c>
+      <c r="K93" s="2">
+        <v>3</v>
+      </c>
+      <c r="L93" s="2">
+        <f>K93*J93</f>
+        <v>6</v>
+      </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4440,10 +4478,10 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4453,11 +4491,11 @@
         <v>2</v>
       </c>
       <c r="K94" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L94" s="2">
-        <f>K94*J94</f>
-        <v>6</v>
+        <f t="shared" ref="L94:L95" si="7">K94*J94</f>
+        <v>20</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -4479,10 +4517,10 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -4492,11 +4530,11 @@
         <v>2</v>
       </c>
       <c r="K95" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" ref="L95:L96" si="7">K95*J95</f>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -4516,27 +4554,20 @@
     <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="C96" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="2">
-        <v>2</v>
-      </c>
-      <c r="K96" s="2">
-        <v>2</v>
-      </c>
-      <c r="L96" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -4555,20 +4586,27 @@
     <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="E97" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="J97" s="2">
+        <v>2</v>
+      </c>
+      <c r="K97" s="2">
+        <v>3</v>
+      </c>
+      <c r="L97" s="2">
+        <f>K97*J97</f>
+        <v>6</v>
+      </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4589,10 +4627,10 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -4602,11 +4640,11 @@
         <v>2</v>
       </c>
       <c r="K98" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L98" s="2">
-        <f>K98*J98</f>
-        <v>6</v>
+        <f t="shared" ref="L98:L99" si="8">K98*J98</f>
+        <v>12</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -4628,10 +4666,10 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4641,11 +4679,11 @@
         <v>2</v>
       </c>
       <c r="K99" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" ref="L99:L100" si="8">K99*J99</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -4663,29 +4701,17 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A100" s="3"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="2">
-        <v>2</v>
-      </c>
-      <c r="K100" s="2">
-        <v>4</v>
-      </c>
-      <c r="L100" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -15743,33 +15769,6 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
-    </row>
-    <row r="510" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B510" s="2"/>
-      <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="2"/>
-      <c r="F510" s="2"/>
-      <c r="G510" s="2"/>
-      <c r="H510" s="2"/>
-      <c r="I510" s="2"/>
-      <c r="J510" s="2"/>
-      <c r="K510" s="2"/>
-      <c r="L510" s="2"/>
-      <c r="M510" s="2"/>
-      <c r="N510" s="2"/>
-      <c r="O510" s="2"/>
-      <c r="P510" s="2"/>
-      <c r="Q510" s="2"/>
-      <c r="R510" s="2"/>
-      <c r="S510" s="2"/>
-      <c r="T510" s="2"/>
-      <c r="U510" s="2"/>
-      <c r="V510" s="2"/>
-      <c r="W510" s="2"/>
-      <c r="X510" s="2"/>
-      <c r="Y510" s="2"/>
-      <c r="Z510" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Gestion/Mega_planif.xlsx
+++ b/Gestion/Mega_planif.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\louis-phil\Documents\université\S5\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\GitHub\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>Intensité des notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Contante </t>
-  </si>
-  <si>
     <t>1.T.2.4</t>
   </si>
   <si>
@@ -719,6 +716,9 @@
   </si>
   <si>
     <t>À déterminer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constante </t>
   </si>
 </sst>
 </file>
@@ -748,12 +748,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -820,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -877,6 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,7 +902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1197,9 +1204,9 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1217,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1221,7 +1228,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
@@ -1243,30 +1250,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z509"/>
+  <dimension ref="A1:AA509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="56.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="7.77734375" customWidth="1"/>
+    <col min="6" max="6" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -1278,12 +1285,12 @@
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
-    </row>
-    <row r="2" spans="1:26" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -1295,72 +1302,72 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1372,18 +1379,19 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1404,17 +1412,18 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1435,17 +1444,18 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1466,26 +1476,27 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1503,34 +1514,35 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1542,26 +1554,27 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1579,17 +1592,17 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1610,26 +1623,27 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B12" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1647,26 +1661,27 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1684,27 +1699,27 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1721,27 +1736,28 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="H15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1758,27 +1774,28 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B16" s="2"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1795,21 +1812,21 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1826,27 +1843,27 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1863,21 +1880,21 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="2" t="s">
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1894,21 +1911,21 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1925,31 +1942,31 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="2">
+      <c r="J21" s="5"/>
+      <c r="K21" s="2">
         <v>2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="2">
         <v>4</v>
       </c>
-      <c r="L21" s="2">
-        <f>K21*J21</f>
+      <c r="M21" s="2">
+        <f>L21*K21</f>
         <v>8</v>
       </c>
-      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1963,31 +1980,31 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="2">
+      <c r="J22" s="5"/>
+      <c r="K22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="L22" s="2">
-        <f t="shared" ref="L22:L23" si="0">K22*J22</f>
+      <c r="M22" s="2">
+        <f t="shared" ref="M22:M23" si="0">L22*K22</f>
         <v>2</v>
       </c>
-      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -2001,31 +2018,31 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="5"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="2">
+      <c r="J23" s="5"/>
+      <c r="K23" s="2">
         <v>2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -2039,21 +2056,21 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -2070,31 +2087,31 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="2">
+      <c r="J25" s="5"/>
+      <c r="K25" s="2">
         <v>2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="L25" s="2">
-        <f>K25*J25</f>
+      <c r="M25" s="2">
+        <f>L25*K25</f>
         <v>2</v>
       </c>
-      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2108,31 +2125,31 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="2">
+      <c r="J26" s="5"/>
+      <c r="K26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="2">
         <v>4</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" ref="L26:L27" si="1">K26*J26</f>
+      <c r="M26" s="2">
+        <f t="shared" ref="M26:M27" si="1">L26*K26</f>
         <v>8</v>
       </c>
-      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -2146,31 +2163,31 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="2">
-        <v>2</v>
-      </c>
+      <c r="J27" s="5"/>
       <c r="K27" s="2">
         <v>2</v>
       </c>
       <c r="L27" s="2">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2184,21 +2201,21 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="2"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2215,31 +2232,31 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="2">
+      <c r="J29" s="5"/>
+      <c r="K29" s="2">
         <v>2</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="2">
         <v>1</v>
       </c>
-      <c r="L29" s="2">
-        <f>K29*J29</f>
+      <c r="M29" s="2">
+        <f>L29*K29</f>
         <v>2</v>
       </c>
-      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2253,31 +2270,31 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="2">
+      <c r="J30" s="5"/>
+      <c r="K30" s="2">
         <v>2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="2">
         <v>2.5</v>
       </c>
-      <c r="L30" s="2">
-        <f t="shared" ref="L30:L31" si="2">K30*J30</f>
+      <c r="M30" s="2">
+        <f t="shared" ref="M30:M31" si="2">L30*K30</f>
         <v>5</v>
       </c>
-      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2291,31 +2308,31 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="2">
+      <c r="J31" s="5"/>
+      <c r="K31" s="2">
         <v>2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L31" s="2">
         <v>3</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -2329,22 +2346,22 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="8"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2361,17 +2378,17 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B33" s="2" t="s">
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2392,17 +2409,17 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2423,20 +2440,20 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2456,20 +2473,20 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2489,20 +2506,20 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2522,20 +2539,20 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2555,17 +2572,17 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2586,20 +2603,20 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2619,20 +2636,20 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="2"/>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2652,20 +2669,20 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2685,20 +2702,20 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2718,26 +2735,26 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2755,20 +2772,20 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2788,17 +2805,17 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="2"/>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2819,17 +2836,17 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="2"/>
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2850,31 +2867,31 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="2">
+      <c r="J48" s="2"/>
+      <c r="K48" s="2">
         <v>2</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="2">
         <v>4</v>
       </c>
-      <c r="L48" s="2">
-        <f>K48*J48</f>
+      <c r="M48" s="2">
+        <f>L48*K48</f>
         <v>8</v>
       </c>
-      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -2888,31 +2905,31 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="2">
+      <c r="J49" s="2"/>
+      <c r="K49" s="2">
         <v>2</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="2">
         <v>1</v>
       </c>
-      <c r="L49" s="2">
-        <f t="shared" ref="L49:L50" si="3">K49*J49</f>
+      <c r="M49" s="2">
+        <f t="shared" ref="M49:M50" si="3">L49*K49</f>
         <v>2</v>
       </c>
-      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -2926,31 +2943,31 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2">
+      <c r="J50" s="2"/>
+      <c r="K50" s="2">
         <v>2</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L50" s="2">
         <v>1</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -2964,17 +2981,17 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="2"/>
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2995,31 +3012,31 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B52" s="2"/>
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2">
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
         <v>2</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="2">
         <v>3</v>
       </c>
-      <c r="L52" s="2">
-        <f>K52*J52</f>
+      <c r="M52" s="2">
+        <f>L52*K52</f>
         <v>6</v>
       </c>
-      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3033,31 +3050,31 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B53" s="2"/>
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2">
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
         <v>2</v>
       </c>
-      <c r="K53" s="2">
+      <c r="L53" s="2">
         <v>10</v>
       </c>
-      <c r="L53" s="2">
-        <f t="shared" ref="L53:L54" si="4">K53*J53</f>
+      <c r="M53" s="2">
+        <f t="shared" ref="M53:M54" si="4">L53*K53</f>
         <v>20</v>
       </c>
-      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -3071,31 +3088,31 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B54" s="2"/>
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="2">
-        <v>2</v>
-      </c>
+      <c r="J54" s="2"/>
       <c r="K54" s="2">
         <v>2</v>
       </c>
       <c r="L54" s="2">
+        <v>2</v>
+      </c>
+      <c r="M54" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3109,17 +3126,17 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="2"/>
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3140,31 +3157,31 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B56" s="2"/>
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="2">
+      <c r="J56" s="2"/>
+      <c r="K56" s="2">
         <v>2</v>
       </c>
-      <c r="K56" s="2">
+      <c r="L56" s="2">
         <v>3</v>
       </c>
-      <c r="L56" s="2">
-        <f>K56*J56</f>
+      <c r="M56" s="2">
+        <f>L56*K56</f>
         <v>6</v>
       </c>
-      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -3178,31 +3195,31 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B57" s="2"/>
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C57" s="2"/>
-      <c r="D57" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="2">
+      <c r="J57" s="2"/>
+      <c r="K57" s="2">
         <v>2</v>
       </c>
-      <c r="K57" s="2">
+      <c r="L57" s="2">
         <v>6</v>
       </c>
-      <c r="L57" s="2">
-        <f t="shared" ref="L57:L58" si="5">K57*J57</f>
+      <c r="M57" s="2">
+        <f t="shared" ref="M57:M58" si="5">L57*K57</f>
         <v>12</v>
       </c>
-      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -3216,31 +3233,31 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B58" s="2"/>
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="2">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2">
         <v>2</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L58" s="2">
         <v>4</v>
       </c>
-      <c r="L58" s="2">
+      <c r="M58" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3254,18 +3271,18 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
         <v>3</v>
       </c>
-      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3286,18 +3303,18 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="2"/>
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+      <c r="C60" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3318,18 +3335,18 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="2"/>
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3350,27 +3367,27 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2"/>
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F62" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="G62" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3388,27 +3405,27 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="B63" s="2"/>
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B63" s="3"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F63" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G63" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3426,27 +3443,27 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A64" s="3"/>
-      <c r="B64" s="2"/>
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B64" s="3"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="2"/>
+      <c r="I64" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3464,21 +3481,21 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A65" s="3"/>
-      <c r="B65" s="2"/>
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G65" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3498,26 +3515,26 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="2"/>
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3535,26 +3552,26 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="2"/>
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I67" s="2"/>
+      <c r="I67" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -3572,17 +3589,17 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-    </row>
-    <row r="68" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3603,26 +3620,26 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-    </row>
-    <row r="69" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="2"/>
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>216</v>
       </c>
       <c r="H69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3640,26 +3657,26 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-    </row>
-    <row r="70" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="2"/>
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -3677,19 +3694,19 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-    </row>
-    <row r="71" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="2"/>
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3708,26 +3725,26 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-    </row>
-    <row r="72" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="2"/>
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3745,26 +3762,26 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
-    </row>
-    <row r="73" spans="1:26" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B73" s="2"/>
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
-      <c r="D73" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="H73" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G73" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -3782,17 +3799,17 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
-    </row>
-    <row r="74" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I74" s="2"/>
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3810,26 +3827,26 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
-    </row>
-    <row r="75" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="2"/>
+      <c r="AA74" s="2"/>
+    </row>
+    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="2"/>
-      <c r="D75" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H75" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -3847,26 +3864,26 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="2"/>
+      <c r="AA75" s="2"/>
+    </row>
+    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="H76" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -3884,20 +3901,20 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="2"/>
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -3917,17 +3934,17 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F78" s="2"/>
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -3948,20 +3965,20 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="2"/>
+      <c r="AA78" s="2"/>
+    </row>
+    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -3981,20 +3998,20 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="2"/>
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G80" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4014,20 +4031,20 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="2"/>
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4047,17 +4064,17 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-    </row>
-    <row r="82" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F82" s="2"/>
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -4078,26 +4095,26 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-    </row>
-    <row r="83" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="2"/>
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C83" s="2"/>
-      <c r="D83" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="H83" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4115,19 +4132,19 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="2"/>
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -4146,26 +4163,26 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="2"/>
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
-        <v>223</v>
-      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4183,26 +4200,26 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
-    </row>
-    <row r="86" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="2"/>
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4220,18 +4237,18 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
-      <c r="B87" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="2"/>
+      <c r="AA86" s="2"/>
+    </row>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B87" s="3"/>
+      <c r="C87" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D87" s="2"/>
-      <c r="E87" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -4252,18 +4269,18 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F88" s="2"/>
+      <c r="AA87" s="2"/>
+    </row>
+    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -4284,32 +4301,32 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
-      <c r="B89" s="2"/>
+      <c r="AA88" s="2"/>
+    </row>
+    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B89" s="3"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-      <c r="J89" s="2">
+      <c r="J89" s="2"/>
+      <c r="K89" s="2">
         <v>2</v>
       </c>
-      <c r="K89" s="2">
+      <c r="L89" s="2">
         <v>4</v>
       </c>
-      <c r="L89" s="2">
-        <f>K89*J89</f>
+      <c r="M89" s="2">
+        <f>L89*K89</f>
         <v>8</v>
       </c>
-      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -4323,32 +4340,32 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
-      <c r="B90" s="2"/>
+      <c r="AA89" s="2"/>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B90" s="3"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-      <c r="J90" s="2">
+      <c r="J90" s="2"/>
+      <c r="K90" s="2">
         <v>2</v>
       </c>
-      <c r="K90" s="2">
+      <c r="L90" s="2">
         <v>1</v>
       </c>
-      <c r="L90" s="2">
-        <f t="shared" ref="L90:L91" si="6">K90*J90</f>
+      <c r="M90" s="2">
+        <f t="shared" ref="M90:M91" si="6">L90*K90</f>
         <v>2</v>
       </c>
-      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -4362,32 +4379,32 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A91" s="3"/>
-      <c r="B91" s="2"/>
+      <c r="AA90" s="2"/>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B91" s="3"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-      <c r="J91" s="2">
+      <c r="J91" s="2"/>
+      <c r="K91" s="2">
         <v>2</v>
       </c>
-      <c r="K91" s="2">
+      <c r="L91" s="2">
         <v>1</v>
       </c>
-      <c r="L91" s="2">
+      <c r="M91" s="2">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -4401,18 +4418,18 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F92" s="2"/>
+      <c r="AA91" s="2"/>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B92" s="3"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -4433,32 +4450,32 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2"/>
+      <c r="AA92" s="2"/>
+    </row>
+    <row r="93" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B93" s="3"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="J93" s="2">
+      <c r="J93" s="2"/>
+      <c r="K93" s="2">
         <v>2</v>
       </c>
-      <c r="K93" s="2">
+      <c r="L93" s="2">
         <v>3</v>
       </c>
-      <c r="L93" s="2">
-        <f>K93*J93</f>
+      <c r="M93" s="2">
+        <f>L93*K93</f>
         <v>6</v>
       </c>
-      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -4472,32 +4489,32 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A94" s="3"/>
-      <c r="B94" s="2"/>
+      <c r="AA93" s="2"/>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B94" s="3"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="2">
+      <c r="J94" s="2"/>
+      <c r="K94" s="2">
         <v>2</v>
       </c>
-      <c r="K94" s="2">
+      <c r="L94" s="2">
         <v>10</v>
       </c>
-      <c r="L94" s="2">
-        <f t="shared" ref="L94:L95" si="7">K94*J94</f>
+      <c r="M94" s="2">
+        <f t="shared" ref="M94:M95" si="7">L94*K94</f>
         <v>20</v>
       </c>
-      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -4511,32 +4528,32 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A95" s="3"/>
-      <c r="B95" s="2"/>
+      <c r="AA94" s="2"/>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="2">
-        <v>2</v>
-      </c>
+      <c r="J95" s="2"/>
       <c r="K95" s="2">
         <v>2</v>
       </c>
       <c r="L95" s="2">
+        <v>2</v>
+      </c>
+      <c r="M95" s="2">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4550,18 +4567,18 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A96" s="3"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F96" s="2"/>
+      <c r="AA95" s="2"/>
+    </row>
+    <row r="96" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B96" s="3"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -4582,32 +4599,32 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A97" s="3"/>
-      <c r="B97" s="2"/>
+      <c r="AA96" s="2"/>
+    </row>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B97" s="3"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="2">
+      <c r="J97" s="2"/>
+      <c r="K97" s="2">
         <v>2</v>
       </c>
-      <c r="K97" s="2">
+      <c r="L97" s="2">
         <v>3</v>
       </c>
-      <c r="L97" s="2">
-        <f>K97*J97</f>
+      <c r="M97" s="2">
+        <f>L97*K97</f>
         <v>6</v>
       </c>
-      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -4621,32 +4638,32 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A98" s="3"/>
-      <c r="B98" s="2"/>
+      <c r="AA97" s="2"/>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B98" s="3"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="2">
+      <c r="J98" s="2"/>
+      <c r="K98" s="2">
         <v>2</v>
       </c>
-      <c r="K98" s="2">
+      <c r="L98" s="2">
         <v>6</v>
       </c>
-      <c r="L98" s="2">
-        <f t="shared" ref="L98:L99" si="8">K98*J98</f>
+      <c r="M98" s="2">
+        <f t="shared" ref="M98:M99" si="8">L98*K98</f>
         <v>12</v>
       </c>
-      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -4660,32 +4677,32 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A99" s="3"/>
-      <c r="B99" s="2"/>
+      <c r="AA98" s="2"/>
+    </row>
+    <row r="99" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="2">
+      <c r="J99" s="2"/>
+      <c r="K99" s="2">
         <v>2</v>
       </c>
-      <c r="K99" s="2">
+      <c r="L99" s="2">
         <v>4</v>
       </c>
-      <c r="L99" s="2">
+      <c r="M99" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4699,9 +4716,9 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B100" s="2"/>
+      <c r="AA99" s="2"/>
+    </row>
+    <row r="100" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4726,9 +4743,9 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B101" s="2"/>
+      <c r="AA100" s="2"/>
+    </row>
+    <row r="101" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4753,9 +4770,9 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B102" s="2"/>
+      <c r="AA101" s="2"/>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4780,9 +4797,9 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B103" s="2"/>
+      <c r="AA102" s="2"/>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4807,9 +4824,9 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B104" s="2"/>
+      <c r="AA103" s="2"/>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4834,9 +4851,9 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B105" s="2"/>
+      <c r="AA104" s="2"/>
+    </row>
+    <row r="105" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4861,9 +4878,9 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B106" s="2"/>
+      <c r="AA105" s="2"/>
+    </row>
+    <row r="106" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4888,9 +4905,9 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B107" s="2"/>
+      <c r="AA106" s="2"/>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4915,9 +4932,9 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="AA107" s="2"/>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4942,9 +4959,9 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B109" s="2"/>
+      <c r="AA108" s="2"/>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4969,9 +4986,9 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B110" s="2"/>
+      <c r="AA109" s="2"/>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4996,9 +5013,9 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="AA110" s="2"/>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5023,9 +5040,9 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
+      <c r="AA111" s="2"/>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5050,9 +5067,9 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-    </row>
-    <row r="113" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B113" s="2"/>
+      <c r="AA112" s="2"/>
+    </row>
+    <row r="113" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5077,9 +5094,9 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-    </row>
-    <row r="114" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B114" s="2"/>
+      <c r="AA113" s="2"/>
+    </row>
+    <row r="114" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5104,9 +5121,9 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-    </row>
-    <row r="115" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
+      <c r="AA114" s="2"/>
+    </row>
+    <row r="115" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5131,9 +5148,9 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
-    </row>
-    <row r="116" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B116" s="2"/>
+      <c r="AA115" s="2"/>
+    </row>
+    <row r="116" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5158,9 +5175,9 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
-    </row>
-    <row r="117" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B117" s="2"/>
+      <c r="AA116" s="2"/>
+    </row>
+    <row r="117" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5185,9 +5202,9 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-    </row>
-    <row r="118" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B118" s="2"/>
+      <c r="AA117" s="2"/>
+    </row>
+    <row r="118" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5212,9 +5229,9 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
-    </row>
-    <row r="119" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B119" s="2"/>
+      <c r="AA118" s="2"/>
+    </row>
+    <row r="119" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5239,9 +5256,9 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
-    </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B120" s="2"/>
+      <c r="AA119" s="2"/>
+    </row>
+    <row r="120" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5266,9 +5283,9 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
-    </row>
-    <row r="121" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B121" s="2"/>
+      <c r="AA120" s="2"/>
+    </row>
+    <row r="121" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5293,9 +5310,9 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
-    </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B122" s="2"/>
+      <c r="AA121" s="2"/>
+    </row>
+    <row r="122" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5320,9 +5337,9 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
-    </row>
-    <row r="123" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B123" s="2"/>
+      <c r="AA122" s="2"/>
+    </row>
+    <row r="123" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5347,9 +5364,9 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-    </row>
-    <row r="124" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B124" s="2"/>
+      <c r="AA123" s="2"/>
+    </row>
+    <row r="124" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5374,9 +5391,9 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-    </row>
-    <row r="125" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B125" s="2"/>
+      <c r="AA124" s="2"/>
+    </row>
+    <row r="125" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5401,9 +5418,9 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-    </row>
-    <row r="126" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B126" s="2"/>
+      <c r="AA125" s="2"/>
+    </row>
+    <row r="126" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5428,9 +5445,9 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-    </row>
-    <row r="127" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B127" s="2"/>
+      <c r="AA126" s="2"/>
+    </row>
+    <row r="127" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5455,9 +5472,9 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
-    </row>
-    <row r="128" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B128" s="2"/>
+      <c r="AA127" s="2"/>
+    </row>
+    <row r="128" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5482,9 +5499,9 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
-    </row>
-    <row r="129" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B129" s="2"/>
+      <c r="AA128" s="2"/>
+    </row>
+    <row r="129" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5509,9 +5526,9 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-    </row>
-    <row r="130" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B130" s="2"/>
+      <c r="AA129" s="2"/>
+    </row>
+    <row r="130" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5536,9 +5553,9 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
-    </row>
-    <row r="131" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B131" s="2"/>
+      <c r="AA130" s="2"/>
+    </row>
+    <row r="131" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5563,9 +5580,9 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-    </row>
-    <row r="132" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B132" s="2"/>
+      <c r="AA131" s="2"/>
+    </row>
+    <row r="132" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5590,9 +5607,9 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-    </row>
-    <row r="133" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B133" s="2"/>
+      <c r="AA132" s="2"/>
+    </row>
+    <row r="133" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5617,9 +5634,9 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
-    </row>
-    <row r="134" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B134" s="2"/>
+      <c r="AA133" s="2"/>
+    </row>
+    <row r="134" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5644,9 +5661,9 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-    </row>
-    <row r="135" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B135" s="2"/>
+      <c r="AA134" s="2"/>
+    </row>
+    <row r="135" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5671,9 +5688,9 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
-    </row>
-    <row r="136" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B136" s="2"/>
+      <c r="AA135" s="2"/>
+    </row>
+    <row r="136" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5698,9 +5715,9 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
-    </row>
-    <row r="137" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B137" s="2"/>
+      <c r="AA136" s="2"/>
+    </row>
+    <row r="137" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5725,9 +5742,9 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
-    </row>
-    <row r="138" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B138" s="2"/>
+      <c r="AA137" s="2"/>
+    </row>
+    <row r="138" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5752,9 +5769,9 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-    </row>
-    <row r="139" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B139" s="2"/>
+      <c r="AA138" s="2"/>
+    </row>
+    <row r="139" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5779,9 +5796,9 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-    </row>
-    <row r="140" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B140" s="2"/>
+      <c r="AA139" s="2"/>
+    </row>
+    <row r="140" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5806,9 +5823,9 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-    </row>
-    <row r="141" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B141" s="2"/>
+      <c r="AA140" s="2"/>
+    </row>
+    <row r="141" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5833,9 +5850,9 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-    </row>
-    <row r="142" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B142" s="2"/>
+      <c r="AA141" s="2"/>
+    </row>
+    <row r="142" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5860,9 +5877,9 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
-    </row>
-    <row r="143" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B143" s="2"/>
+      <c r="AA142" s="2"/>
+    </row>
+    <row r="143" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5887,9 +5904,9 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
-    </row>
-    <row r="144" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B144" s="2"/>
+      <c r="AA143" s="2"/>
+    </row>
+    <row r="144" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5914,9 +5931,9 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
-    </row>
-    <row r="145" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B145" s="2"/>
+      <c r="AA144" s="2"/>
+    </row>
+    <row r="145" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5941,9 +5958,9 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
-    </row>
-    <row r="146" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B146" s="2"/>
+      <c r="AA145" s="2"/>
+    </row>
+    <row r="146" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5968,9 +5985,9 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
-    </row>
-    <row r="147" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B147" s="2"/>
+      <c r="AA146" s="2"/>
+    </row>
+    <row r="147" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5995,9 +6012,9 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
-    </row>
-    <row r="148" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B148" s="2"/>
+      <c r="AA147" s="2"/>
+    </row>
+    <row r="148" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6022,9 +6039,9 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
-    </row>
-    <row r="149" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B149" s="2"/>
+      <c r="AA148" s="2"/>
+    </row>
+    <row r="149" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6049,9 +6066,9 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
-    </row>
-    <row r="150" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B150" s="2"/>
+      <c r="AA149" s="2"/>
+    </row>
+    <row r="150" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6076,9 +6093,9 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
-    </row>
-    <row r="151" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B151" s="2"/>
+      <c r="AA150" s="2"/>
+    </row>
+    <row r="151" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6103,9 +6120,9 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
-    </row>
-    <row r="152" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B152" s="2"/>
+      <c r="AA151" s="2"/>
+    </row>
+    <row r="152" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6130,9 +6147,9 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
-    </row>
-    <row r="153" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B153" s="2"/>
+      <c r="AA152" s="2"/>
+    </row>
+    <row r="153" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6157,9 +6174,9 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
-    </row>
-    <row r="154" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B154" s="2"/>
+      <c r="AA153" s="2"/>
+    </row>
+    <row r="154" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6184,9 +6201,9 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
-    </row>
-    <row r="155" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B155" s="2"/>
+      <c r="AA154" s="2"/>
+    </row>
+    <row r="155" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6211,9 +6228,9 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
-    </row>
-    <row r="156" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B156" s="2"/>
+      <c r="AA155" s="2"/>
+    </row>
+    <row r="156" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6238,9 +6255,9 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
-    </row>
-    <row r="157" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B157" s="2"/>
+      <c r="AA156" s="2"/>
+    </row>
+    <row r="157" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6265,9 +6282,9 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
-    </row>
-    <row r="158" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B158" s="2"/>
+      <c r="AA157" s="2"/>
+    </row>
+    <row r="158" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6292,9 +6309,9 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
-    </row>
-    <row r="159" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B159" s="2"/>
+      <c r="AA158" s="2"/>
+    </row>
+    <row r="159" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6319,9 +6336,9 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
-    </row>
-    <row r="160" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B160" s="2"/>
+      <c r="AA159" s="2"/>
+    </row>
+    <row r="160" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6346,9 +6363,9 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
-    </row>
-    <row r="161" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B161" s="2"/>
+      <c r="AA160" s="2"/>
+    </row>
+    <row r="161" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6373,9 +6390,9 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
-    </row>
-    <row r="162" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B162" s="2"/>
+      <c r="AA161" s="2"/>
+    </row>
+    <row r="162" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6400,9 +6417,9 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
-    </row>
-    <row r="163" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B163" s="2"/>
+      <c r="AA162" s="2"/>
+    </row>
+    <row r="163" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6427,9 +6444,9 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
-    </row>
-    <row r="164" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B164" s="2"/>
+      <c r="AA163" s="2"/>
+    </row>
+    <row r="164" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6454,9 +6471,9 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
-    </row>
-    <row r="165" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B165" s="2"/>
+      <c r="AA164" s="2"/>
+    </row>
+    <row r="165" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6481,9 +6498,9 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
-    </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B166" s="2"/>
+      <c r="AA165" s="2"/>
+    </row>
+    <row r="166" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6508,9 +6525,9 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
-    </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B167" s="2"/>
+      <c r="AA166" s="2"/>
+    </row>
+    <row r="167" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6535,9 +6552,9 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
-    </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B168" s="2"/>
+      <c r="AA167" s="2"/>
+    </row>
+    <row r="168" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6562,9 +6579,9 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
-    </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B169" s="2"/>
+      <c r="AA168" s="2"/>
+    </row>
+    <row r="169" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6589,9 +6606,9 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
-    </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B170" s="2"/>
+      <c r="AA169" s="2"/>
+    </row>
+    <row r="170" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6616,9 +6633,9 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
-    </row>
-    <row r="171" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B171" s="2"/>
+      <c r="AA170" s="2"/>
+    </row>
+    <row r="171" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6643,9 +6660,9 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
-    </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B172" s="2"/>
+      <c r="AA171" s="2"/>
+    </row>
+    <row r="172" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6670,9 +6687,9 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
-    </row>
-    <row r="173" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B173" s="2"/>
+      <c r="AA172" s="2"/>
+    </row>
+    <row r="173" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6697,9 +6714,9 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
-    </row>
-    <row r="174" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B174" s="2"/>
+      <c r="AA173" s="2"/>
+    </row>
+    <row r="174" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6724,9 +6741,9 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
-    </row>
-    <row r="175" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B175" s="2"/>
+      <c r="AA174" s="2"/>
+    </row>
+    <row r="175" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6751,9 +6768,9 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
-    </row>
-    <row r="176" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B176" s="2"/>
+      <c r="AA175" s="2"/>
+    </row>
+    <row r="176" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6778,9 +6795,9 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
-    </row>
-    <row r="177" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B177" s="2"/>
+      <c r="AA176" s="2"/>
+    </row>
+    <row r="177" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6805,9 +6822,9 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
-    </row>
-    <row r="178" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B178" s="2"/>
+      <c r="AA177" s="2"/>
+    </row>
+    <row r="178" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6832,9 +6849,9 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
-    </row>
-    <row r="179" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B179" s="2"/>
+      <c r="AA178" s="2"/>
+    </row>
+    <row r="179" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6859,9 +6876,9 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
-    </row>
-    <row r="180" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B180" s="2"/>
+      <c r="AA179" s="2"/>
+    </row>
+    <row r="180" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6886,9 +6903,9 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
-    </row>
-    <row r="181" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B181" s="2"/>
+      <c r="AA180" s="2"/>
+    </row>
+    <row r="181" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6913,9 +6930,9 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
-    </row>
-    <row r="182" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B182" s="2"/>
+      <c r="AA181" s="2"/>
+    </row>
+    <row r="182" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6940,9 +6957,9 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
-    </row>
-    <row r="183" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B183" s="2"/>
+      <c r="AA182" s="2"/>
+    </row>
+    <row r="183" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6967,9 +6984,9 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
-    </row>
-    <row r="184" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B184" s="2"/>
+      <c r="AA183" s="2"/>
+    </row>
+    <row r="184" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6994,9 +7011,9 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
-    </row>
-    <row r="185" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B185" s="2"/>
+      <c r="AA184" s="2"/>
+    </row>
+    <row r="185" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7021,9 +7038,9 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
-    </row>
-    <row r="186" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B186" s="2"/>
+      <c r="AA185" s="2"/>
+    </row>
+    <row r="186" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7048,9 +7065,9 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
-    </row>
-    <row r="187" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B187" s="2"/>
+      <c r="AA186" s="2"/>
+    </row>
+    <row r="187" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7075,9 +7092,9 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
-    </row>
-    <row r="188" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B188" s="2"/>
+      <c r="AA187" s="2"/>
+    </row>
+    <row r="188" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7102,9 +7119,9 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
-    </row>
-    <row r="189" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B189" s="2"/>
+      <c r="AA188" s="2"/>
+    </row>
+    <row r="189" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7129,9 +7146,9 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
-    </row>
-    <row r="190" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B190" s="2"/>
+      <c r="AA189" s="2"/>
+    </row>
+    <row r="190" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7156,9 +7173,9 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-    </row>
-    <row r="191" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B191" s="2"/>
+      <c r="AA190" s="2"/>
+    </row>
+    <row r="191" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7183,9 +7200,9 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
-    </row>
-    <row r="192" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B192" s="2"/>
+      <c r="AA191" s="2"/>
+    </row>
+    <row r="192" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7210,9 +7227,9 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
-    </row>
-    <row r="193" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B193" s="2"/>
+      <c r="AA192" s="2"/>
+    </row>
+    <row r="193" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -7237,9 +7254,9 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
-    </row>
-    <row r="194" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B194" s="2"/>
+      <c r="AA193" s="2"/>
+    </row>
+    <row r="194" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -7264,9 +7281,9 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
-    </row>
-    <row r="195" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B195" s="2"/>
+      <c r="AA194" s="2"/>
+    </row>
+    <row r="195" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7291,9 +7308,9 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
-    </row>
-    <row r="196" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B196" s="2"/>
+      <c r="AA195" s="2"/>
+    </row>
+    <row r="196" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7318,9 +7335,9 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
-    </row>
-    <row r="197" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B197" s="2"/>
+      <c r="AA196" s="2"/>
+    </row>
+    <row r="197" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -7345,9 +7362,9 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-    </row>
-    <row r="198" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B198" s="2"/>
+      <c r="AA197" s="2"/>
+    </row>
+    <row r="198" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7372,9 +7389,9 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
-    </row>
-    <row r="199" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B199" s="2"/>
+      <c r="AA198" s="2"/>
+    </row>
+    <row r="199" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7399,9 +7416,9 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
-    </row>
-    <row r="200" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B200" s="2"/>
+      <c r="AA199" s="2"/>
+    </row>
+    <row r="200" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7426,9 +7443,9 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
-    </row>
-    <row r="201" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B201" s="2"/>
+      <c r="AA200" s="2"/>
+    </row>
+    <row r="201" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7453,9 +7470,9 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
-    </row>
-    <row r="202" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B202" s="2"/>
+      <c r="AA201" s="2"/>
+    </row>
+    <row r="202" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7480,9 +7497,9 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
-    </row>
-    <row r="203" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B203" s="2"/>
+      <c r="AA202" s="2"/>
+    </row>
+    <row r="203" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7507,9 +7524,9 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
-    </row>
-    <row r="204" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B204" s="2"/>
+      <c r="AA203" s="2"/>
+    </row>
+    <row r="204" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7534,9 +7551,9 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
-    </row>
-    <row r="205" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B205" s="2"/>
+      <c r="AA204" s="2"/>
+    </row>
+    <row r="205" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7561,9 +7578,9 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
-    </row>
-    <row r="206" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B206" s="2"/>
+      <c r="AA205" s="2"/>
+    </row>
+    <row r="206" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -7588,9 +7605,9 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
-    </row>
-    <row r="207" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B207" s="2"/>
+      <c r="AA206" s="2"/>
+    </row>
+    <row r="207" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7615,9 +7632,9 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
-    </row>
-    <row r="208" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B208" s="2"/>
+      <c r="AA207" s="2"/>
+    </row>
+    <row r="208" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7642,9 +7659,9 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
-    </row>
-    <row r="209" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B209" s="2"/>
+      <c r="AA208" s="2"/>
+    </row>
+    <row r="209" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7669,9 +7686,9 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
-    </row>
-    <row r="210" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B210" s="2"/>
+      <c r="AA209" s="2"/>
+    </row>
+    <row r="210" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7696,9 +7713,9 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
-    </row>
-    <row r="211" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B211" s="2"/>
+      <c r="AA210" s="2"/>
+    </row>
+    <row r="211" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7723,9 +7740,9 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
-    </row>
-    <row r="212" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B212" s="2"/>
+      <c r="AA211" s="2"/>
+    </row>
+    <row r="212" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7750,9 +7767,9 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
-    </row>
-    <row r="213" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B213" s="2"/>
+      <c r="AA212" s="2"/>
+    </row>
+    <row r="213" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7777,9 +7794,9 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
-    </row>
-    <row r="214" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B214" s="2"/>
+      <c r="AA213" s="2"/>
+    </row>
+    <row r="214" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -7804,9 +7821,9 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
-    </row>
-    <row r="215" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B215" s="2"/>
+      <c r="AA214" s="2"/>
+    </row>
+    <row r="215" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -7831,9 +7848,9 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
-    </row>
-    <row r="216" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B216" s="2"/>
+      <c r="AA215" s="2"/>
+    </row>
+    <row r="216" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -7858,9 +7875,9 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
-    </row>
-    <row r="217" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B217" s="2"/>
+      <c r="AA216" s="2"/>
+    </row>
+    <row r="217" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7885,9 +7902,9 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
-    </row>
-    <row r="218" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B218" s="2"/>
+      <c r="AA217" s="2"/>
+    </row>
+    <row r="218" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -7912,9 +7929,9 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
-    </row>
-    <row r="219" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B219" s="2"/>
+      <c r="AA218" s="2"/>
+    </row>
+    <row r="219" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7939,9 +7956,9 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
-    </row>
-    <row r="220" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B220" s="2"/>
+      <c r="AA219" s="2"/>
+    </row>
+    <row r="220" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7966,9 +7983,9 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
-    </row>
-    <row r="221" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B221" s="2"/>
+      <c r="AA220" s="2"/>
+    </row>
+    <row r="221" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -7993,9 +8010,9 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
-    </row>
-    <row r="222" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B222" s="2"/>
+      <c r="AA221" s="2"/>
+    </row>
+    <row r="222" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8020,9 +8037,9 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
-    </row>
-    <row r="223" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B223" s="2"/>
+      <c r="AA222" s="2"/>
+    </row>
+    <row r="223" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8047,9 +8064,9 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
-    </row>
-    <row r="224" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B224" s="2"/>
+      <c r="AA223" s="2"/>
+    </row>
+    <row r="224" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8074,9 +8091,9 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
-    </row>
-    <row r="225" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B225" s="2"/>
+      <c r="AA224" s="2"/>
+    </row>
+    <row r="225" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8101,9 +8118,9 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
-    </row>
-    <row r="226" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B226" s="2"/>
+      <c r="AA225" s="2"/>
+    </row>
+    <row r="226" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8128,9 +8145,9 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
-    </row>
-    <row r="227" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B227" s="2"/>
+      <c r="AA226" s="2"/>
+    </row>
+    <row r="227" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8155,9 +8172,9 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
-    </row>
-    <row r="228" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B228" s="2"/>
+      <c r="AA227" s="2"/>
+    </row>
+    <row r="228" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8182,9 +8199,9 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
-    </row>
-    <row r="229" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B229" s="2"/>
+      <c r="AA228" s="2"/>
+    </row>
+    <row r="229" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8209,9 +8226,9 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
-    </row>
-    <row r="230" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B230" s="2"/>
+      <c r="AA229" s="2"/>
+    </row>
+    <row r="230" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -8236,9 +8253,9 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
-    </row>
-    <row r="231" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B231" s="2"/>
+      <c r="AA230" s="2"/>
+    </row>
+    <row r="231" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -8263,9 +8280,9 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
-    </row>
-    <row r="232" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B232" s="2"/>
+      <c r="AA231" s="2"/>
+    </row>
+    <row r="232" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -8290,9 +8307,9 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
-    </row>
-    <row r="233" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B233" s="2"/>
+      <c r="AA232" s="2"/>
+    </row>
+    <row r="233" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -8317,9 +8334,9 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
-    </row>
-    <row r="234" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B234" s="2"/>
+      <c r="AA233" s="2"/>
+    </row>
+    <row r="234" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -8344,9 +8361,9 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
-    </row>
-    <row r="235" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B235" s="2"/>
+      <c r="AA234" s="2"/>
+    </row>
+    <row r="235" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -8371,9 +8388,9 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
-    </row>
-    <row r="236" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B236" s="2"/>
+      <c r="AA235" s="2"/>
+    </row>
+    <row r="236" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -8398,9 +8415,9 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
-    </row>
-    <row r="237" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B237" s="2"/>
+      <c r="AA236" s="2"/>
+    </row>
+    <row r="237" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -8425,9 +8442,9 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
-    </row>
-    <row r="238" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B238" s="2"/>
+      <c r="AA237" s="2"/>
+    </row>
+    <row r="238" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -8452,9 +8469,9 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
-    </row>
-    <row r="239" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B239" s="2"/>
+      <c r="AA238" s="2"/>
+    </row>
+    <row r="239" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -8479,9 +8496,9 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
-    </row>
-    <row r="240" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B240" s="2"/>
+      <c r="AA239" s="2"/>
+    </row>
+    <row r="240" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -8506,9 +8523,9 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
-    </row>
-    <row r="241" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B241" s="2"/>
+      <c r="AA240" s="2"/>
+    </row>
+    <row r="241" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -8533,9 +8550,9 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
-    </row>
-    <row r="242" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B242" s="2"/>
+      <c r="AA241" s="2"/>
+    </row>
+    <row r="242" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -8560,9 +8577,9 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
-    </row>
-    <row r="243" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B243" s="2"/>
+      <c r="AA242" s="2"/>
+    </row>
+    <row r="243" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -8587,9 +8604,9 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
-    </row>
-    <row r="244" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B244" s="2"/>
+      <c r="AA243" s="2"/>
+    </row>
+    <row r="244" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -8614,9 +8631,9 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
-    </row>
-    <row r="245" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B245" s="2"/>
+      <c r="AA244" s="2"/>
+    </row>
+    <row r="245" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -8641,9 +8658,9 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
-    </row>
-    <row r="246" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B246" s="2"/>
+      <c r="AA245" s="2"/>
+    </row>
+    <row r="246" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -8668,9 +8685,9 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
-    </row>
-    <row r="247" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B247" s="2"/>
+      <c r="AA246" s="2"/>
+    </row>
+    <row r="247" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -8695,9 +8712,9 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
-    </row>
-    <row r="248" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B248" s="2"/>
+      <c r="AA247" s="2"/>
+    </row>
+    <row r="248" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -8722,9 +8739,9 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
-    </row>
-    <row r="249" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B249" s="2"/>
+      <c r="AA248" s="2"/>
+    </row>
+    <row r="249" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -8749,9 +8766,9 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
-    </row>
-    <row r="250" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B250" s="2"/>
+      <c r="AA249" s="2"/>
+    </row>
+    <row r="250" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -8776,9 +8793,9 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
-    </row>
-    <row r="251" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B251" s="2"/>
+      <c r="AA250" s="2"/>
+    </row>
+    <row r="251" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -8803,9 +8820,9 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
-    </row>
-    <row r="252" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B252" s="2"/>
+      <c r="AA251" s="2"/>
+    </row>
+    <row r="252" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -8830,9 +8847,9 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
-    </row>
-    <row r="253" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B253" s="2"/>
+      <c r="AA252" s="2"/>
+    </row>
+    <row r="253" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -8857,9 +8874,9 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
-    </row>
-    <row r="254" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B254" s="2"/>
+      <c r="AA253" s="2"/>
+    </row>
+    <row r="254" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -8884,9 +8901,9 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
-    </row>
-    <row r="255" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B255" s="2"/>
+      <c r="AA254" s="2"/>
+    </row>
+    <row r="255" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -8911,9 +8928,9 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
-    </row>
-    <row r="256" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B256" s="2"/>
+      <c r="AA255" s="2"/>
+    </row>
+    <row r="256" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -8938,9 +8955,9 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
-    </row>
-    <row r="257" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B257" s="2"/>
+      <c r="AA256" s="2"/>
+    </row>
+    <row r="257" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -8965,9 +8982,9 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
-    </row>
-    <row r="258" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B258" s="2"/>
+      <c r="AA257" s="2"/>
+    </row>
+    <row r="258" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -8992,9 +9009,9 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
-    </row>
-    <row r="259" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B259" s="2"/>
+      <c r="AA258" s="2"/>
+    </row>
+    <row r="259" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9019,9 +9036,9 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
-    </row>
-    <row r="260" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B260" s="2"/>
+      <c r="AA259" s="2"/>
+    </row>
+    <row r="260" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9046,9 +9063,9 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
-    </row>
-    <row r="261" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B261" s="2"/>
+      <c r="AA260" s="2"/>
+    </row>
+    <row r="261" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -9073,9 +9090,9 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
-    </row>
-    <row r="262" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B262" s="2"/>
+      <c r="AA261" s="2"/>
+    </row>
+    <row r="262" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9100,9 +9117,9 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
-    </row>
-    <row r="263" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B263" s="2"/>
+      <c r="AA262" s="2"/>
+    </row>
+    <row r="263" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9127,9 +9144,9 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
-    </row>
-    <row r="264" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B264" s="2"/>
+      <c r="AA263" s="2"/>
+    </row>
+    <row r="264" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -9154,9 +9171,9 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
-    </row>
-    <row r="265" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B265" s="2"/>
+      <c r="AA264" s="2"/>
+    </row>
+    <row r="265" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -9181,9 +9198,9 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
-    </row>
-    <row r="266" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B266" s="2"/>
+      <c r="AA265" s="2"/>
+    </row>
+    <row r="266" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9208,9 +9225,9 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
-    </row>
-    <row r="267" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B267" s="2"/>
+      <c r="AA266" s="2"/>
+    </row>
+    <row r="267" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -9235,9 +9252,9 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
-    </row>
-    <row r="268" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B268" s="2"/>
+      <c r="AA267" s="2"/>
+    </row>
+    <row r="268" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -9262,9 +9279,9 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
-    </row>
-    <row r="269" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B269" s="2"/>
+      <c r="AA268" s="2"/>
+    </row>
+    <row r="269" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -9289,9 +9306,9 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
-    </row>
-    <row r="270" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B270" s="2"/>
+      <c r="AA269" s="2"/>
+    </row>
+    <row r="270" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -9316,9 +9333,9 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
-    </row>
-    <row r="271" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B271" s="2"/>
+      <c r="AA270" s="2"/>
+    </row>
+    <row r="271" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -9343,9 +9360,9 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
-    </row>
-    <row r="272" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B272" s="2"/>
+      <c r="AA271" s="2"/>
+    </row>
+    <row r="272" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9370,9 +9387,9 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
-    </row>
-    <row r="273" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B273" s="2"/>
+      <c r="AA272" s="2"/>
+    </row>
+    <row r="273" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9397,9 +9414,9 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
-    </row>
-    <row r="274" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B274" s="2"/>
+      <c r="AA273" s="2"/>
+    </row>
+    <row r="274" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9424,9 +9441,9 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
-    </row>
-    <row r="275" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B275" s="2"/>
+      <c r="AA274" s="2"/>
+    </row>
+    <row r="275" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9451,9 +9468,9 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
-    </row>
-    <row r="276" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B276" s="2"/>
+      <c r="AA275" s="2"/>
+    </row>
+    <row r="276" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9478,9 +9495,9 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
-    </row>
-    <row r="277" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B277" s="2"/>
+      <c r="AA276" s="2"/>
+    </row>
+    <row r="277" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9505,9 +9522,9 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
-    </row>
-    <row r="278" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B278" s="2"/>
+      <c r="AA277" s="2"/>
+    </row>
+    <row r="278" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9532,9 +9549,9 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
-    </row>
-    <row r="279" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B279" s="2"/>
+      <c r="AA278" s="2"/>
+    </row>
+    <row r="279" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9559,9 +9576,9 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
-    </row>
-    <row r="280" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B280" s="2"/>
+      <c r="AA279" s="2"/>
+    </row>
+    <row r="280" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9586,9 +9603,9 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
-    </row>
-    <row r="281" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B281" s="2"/>
+      <c r="AA280" s="2"/>
+    </row>
+    <row r="281" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -9613,9 +9630,9 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
-    </row>
-    <row r="282" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B282" s="2"/>
+      <c r="AA281" s="2"/>
+    </row>
+    <row r="282" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -9640,9 +9657,9 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
-    </row>
-    <row r="283" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B283" s="2"/>
+      <c r="AA282" s="2"/>
+    </row>
+    <row r="283" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -9667,9 +9684,9 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
-    </row>
-    <row r="284" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B284" s="2"/>
+      <c r="AA283" s="2"/>
+    </row>
+    <row r="284" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -9694,9 +9711,9 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
-    </row>
-    <row r="285" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B285" s="2"/>
+      <c r="AA284" s="2"/>
+    </row>
+    <row r="285" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -9721,9 +9738,9 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
-    </row>
-    <row r="286" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B286" s="2"/>
+      <c r="AA285" s="2"/>
+    </row>
+    <row r="286" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9748,9 +9765,9 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
-    </row>
-    <row r="287" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B287" s="2"/>
+      <c r="AA286" s="2"/>
+    </row>
+    <row r="287" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9775,9 +9792,9 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
-    </row>
-    <row r="288" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B288" s="2"/>
+      <c r="AA287" s="2"/>
+    </row>
+    <row r="288" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -9802,9 +9819,9 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
-    </row>
-    <row r="289" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B289" s="2"/>
+      <c r="AA288" s="2"/>
+    </row>
+    <row r="289" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9829,9 +9846,9 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
-    </row>
-    <row r="290" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B290" s="2"/>
+      <c r="AA289" s="2"/>
+    </row>
+    <row r="290" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -9856,9 +9873,9 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
-    </row>
-    <row r="291" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B291" s="2"/>
+      <c r="AA290" s="2"/>
+    </row>
+    <row r="291" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9883,9 +9900,9 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
-    </row>
-    <row r="292" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B292" s="2"/>
+      <c r="AA291" s="2"/>
+    </row>
+    <row r="292" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9910,9 +9927,9 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
-    </row>
-    <row r="293" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B293" s="2"/>
+      <c r="AA292" s="2"/>
+    </row>
+    <row r="293" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -9937,9 +9954,9 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
-    </row>
-    <row r="294" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B294" s="2"/>
+      <c r="AA293" s="2"/>
+    </row>
+    <row r="294" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -9964,9 +9981,9 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
-    </row>
-    <row r="295" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B295" s="2"/>
+      <c r="AA294" s="2"/>
+    </row>
+    <row r="295" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -9991,9 +10008,9 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
-    </row>
-    <row r="296" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B296" s="2"/>
+      <c r="AA295" s="2"/>
+    </row>
+    <row r="296" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10018,9 +10035,9 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
-    </row>
-    <row r="297" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B297" s="2"/>
+      <c r="AA296" s="2"/>
+    </row>
+    <row r="297" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -10045,9 +10062,9 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
-    </row>
-    <row r="298" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B298" s="2"/>
+      <c r="AA297" s="2"/>
+    </row>
+    <row r="298" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10072,9 +10089,9 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
-    </row>
-    <row r="299" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B299" s="2"/>
+      <c r="AA298" s="2"/>
+    </row>
+    <row r="299" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -10099,9 +10116,9 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
-    </row>
-    <row r="300" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B300" s="2"/>
+      <c r="AA299" s="2"/>
+    </row>
+    <row r="300" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -10126,9 +10143,9 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
-    </row>
-    <row r="301" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B301" s="2"/>
+      <c r="AA300" s="2"/>
+    </row>
+    <row r="301" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10153,9 +10170,9 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
-    </row>
-    <row r="302" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B302" s="2"/>
+      <c r="AA301" s="2"/>
+    </row>
+    <row r="302" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10180,9 +10197,9 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
-    </row>
-    <row r="303" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B303" s="2"/>
+      <c r="AA302" s="2"/>
+    </row>
+    <row r="303" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10207,9 +10224,9 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
-    </row>
-    <row r="304" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B304" s="2"/>
+      <c r="AA303" s="2"/>
+    </row>
+    <row r="304" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10234,9 +10251,9 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
-    </row>
-    <row r="305" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B305" s="2"/>
+      <c r="AA304" s="2"/>
+    </row>
+    <row r="305" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10261,9 +10278,9 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
-    </row>
-    <row r="306" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B306" s="2"/>
+      <c r="AA305" s="2"/>
+    </row>
+    <row r="306" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -10288,9 +10305,9 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
-    </row>
-    <row r="307" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B307" s="2"/>
+      <c r="AA306" s="2"/>
+    </row>
+    <row r="307" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -10315,9 +10332,9 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
-    </row>
-    <row r="308" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B308" s="2"/>
+      <c r="AA307" s="2"/>
+    </row>
+    <row r="308" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10342,9 +10359,9 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
-    </row>
-    <row r="309" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B309" s="2"/>
+      <c r="AA308" s="2"/>
+    </row>
+    <row r="309" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10369,9 +10386,9 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
-    </row>
-    <row r="310" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B310" s="2"/>
+      <c r="AA309" s="2"/>
+    </row>
+    <row r="310" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10396,9 +10413,9 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
-    </row>
-    <row r="311" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B311" s="2"/>
+      <c r="AA310" s="2"/>
+    </row>
+    <row r="311" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -10423,9 +10440,9 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
-    </row>
-    <row r="312" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B312" s="2"/>
+      <c r="AA311" s="2"/>
+    </row>
+    <row r="312" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10450,9 +10467,9 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
-    </row>
-    <row r="313" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B313" s="2"/>
+      <c r="AA312" s="2"/>
+    </row>
+    <row r="313" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10477,9 +10494,9 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
-    </row>
-    <row r="314" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B314" s="2"/>
+      <c r="AA313" s="2"/>
+    </row>
+    <row r="314" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10504,9 +10521,9 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
-    </row>
-    <row r="315" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B315" s="2"/>
+      <c r="AA314" s="2"/>
+    </row>
+    <row r="315" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10531,9 +10548,9 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
-    </row>
-    <row r="316" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B316" s="2"/>
+      <c r="AA315" s="2"/>
+    </row>
+    <row r="316" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10558,9 +10575,9 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
-    </row>
-    <row r="317" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B317" s="2"/>
+      <c r="AA316" s="2"/>
+    </row>
+    <row r="317" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -10585,9 +10602,9 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
-    </row>
-    <row r="318" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B318" s="2"/>
+      <c r="AA317" s="2"/>
+    </row>
+    <row r="318" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10612,9 +10629,9 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
-    </row>
-    <row r="319" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B319" s="2"/>
+      <c r="AA318" s="2"/>
+    </row>
+    <row r="319" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10639,9 +10656,9 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
-    </row>
-    <row r="320" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B320" s="2"/>
+      <c r="AA319" s="2"/>
+    </row>
+    <row r="320" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10666,9 +10683,9 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
-    </row>
-    <row r="321" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B321" s="2"/>
+      <c r="AA320" s="2"/>
+    </row>
+    <row r="321" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -10693,9 +10710,9 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
-    </row>
-    <row r="322" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B322" s="2"/>
+      <c r="AA321" s="2"/>
+    </row>
+    <row r="322" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10720,9 +10737,9 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
-    </row>
-    <row r="323" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B323" s="2"/>
+      <c r="AA322" s="2"/>
+    </row>
+    <row r="323" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10747,9 +10764,9 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
-    </row>
-    <row r="324" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B324" s="2"/>
+      <c r="AA323" s="2"/>
+    </row>
+    <row r="324" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -10774,9 +10791,9 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
-    </row>
-    <row r="325" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B325" s="2"/>
+      <c r="AA324" s="2"/>
+    </row>
+    <row r="325" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -10801,9 +10818,9 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
-    </row>
-    <row r="326" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B326" s="2"/>
+      <c r="AA325" s="2"/>
+    </row>
+    <row r="326" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -10828,9 +10845,9 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
-    </row>
-    <row r="327" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B327" s="2"/>
+      <c r="AA326" s="2"/>
+    </row>
+    <row r="327" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -10855,9 +10872,9 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
-    </row>
-    <row r="328" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B328" s="2"/>
+      <c r="AA327" s="2"/>
+    </row>
+    <row r="328" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -10882,9 +10899,9 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
-    </row>
-    <row r="329" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B329" s="2"/>
+      <c r="AA328" s="2"/>
+    </row>
+    <row r="329" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -10909,9 +10926,9 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
-    </row>
-    <row r="330" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B330" s="2"/>
+      <c r="AA329" s="2"/>
+    </row>
+    <row r="330" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -10936,9 +10953,9 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
-    </row>
-    <row r="331" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B331" s="2"/>
+      <c r="AA330" s="2"/>
+    </row>
+    <row r="331" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -10963,9 +10980,9 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
-    </row>
-    <row r="332" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B332" s="2"/>
+      <c r="AA331" s="2"/>
+    </row>
+    <row r="332" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -10990,9 +11007,9 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
-    </row>
-    <row r="333" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B333" s="2"/>
+      <c r="AA332" s="2"/>
+    </row>
+    <row r="333" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -11017,9 +11034,9 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
-    </row>
-    <row r="334" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B334" s="2"/>
+      <c r="AA333" s="2"/>
+    </row>
+    <row r="334" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -11044,9 +11061,9 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
-    </row>
-    <row r="335" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B335" s="2"/>
+      <c r="AA334" s="2"/>
+    </row>
+    <row r="335" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -11071,9 +11088,9 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
-    </row>
-    <row r="336" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B336" s="2"/>
+      <c r="AA335" s="2"/>
+    </row>
+    <row r="336" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -11098,9 +11115,9 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
-    </row>
-    <row r="337" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B337" s="2"/>
+      <c r="AA336" s="2"/>
+    </row>
+    <row r="337" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -11125,9 +11142,9 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
-    </row>
-    <row r="338" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B338" s="2"/>
+      <c r="AA337" s="2"/>
+    </row>
+    <row r="338" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -11152,9 +11169,9 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
-    </row>
-    <row r="339" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B339" s="2"/>
+      <c r="AA338" s="2"/>
+    </row>
+    <row r="339" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -11179,9 +11196,9 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
-    </row>
-    <row r="340" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B340" s="2"/>
+      <c r="AA339" s="2"/>
+    </row>
+    <row r="340" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -11206,9 +11223,9 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
-    </row>
-    <row r="341" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B341" s="2"/>
+      <c r="AA340" s="2"/>
+    </row>
+    <row r="341" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -11233,9 +11250,9 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
-    </row>
-    <row r="342" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B342" s="2"/>
+      <c r="AA341" s="2"/>
+    </row>
+    <row r="342" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -11260,9 +11277,9 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
-    </row>
-    <row r="343" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B343" s="2"/>
+      <c r="AA342" s="2"/>
+    </row>
+    <row r="343" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -11287,9 +11304,9 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
-    </row>
-    <row r="344" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B344" s="2"/>
+      <c r="AA343" s="2"/>
+    </row>
+    <row r="344" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -11314,9 +11331,9 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
-    </row>
-    <row r="345" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B345" s="2"/>
+      <c r="AA344" s="2"/>
+    </row>
+    <row r="345" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -11341,9 +11358,9 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
-    </row>
-    <row r="346" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B346" s="2"/>
+      <c r="AA345" s="2"/>
+    </row>
+    <row r="346" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -11368,9 +11385,9 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
-    </row>
-    <row r="347" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B347" s="2"/>
+      <c r="AA346" s="2"/>
+    </row>
+    <row r="347" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -11395,9 +11412,9 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
-    </row>
-    <row r="348" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B348" s="2"/>
+      <c r="AA347" s="2"/>
+    </row>
+    <row r="348" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -11422,9 +11439,9 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
-    </row>
-    <row r="349" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B349" s="2"/>
+      <c r="AA348" s="2"/>
+    </row>
+    <row r="349" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -11449,9 +11466,9 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
-    </row>
-    <row r="350" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B350" s="2"/>
+      <c r="AA349" s="2"/>
+    </row>
+    <row r="350" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -11476,9 +11493,9 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
-    </row>
-    <row r="351" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B351" s="2"/>
+      <c r="AA350" s="2"/>
+    </row>
+    <row r="351" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -11503,9 +11520,9 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
-    </row>
-    <row r="352" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B352" s="2"/>
+      <c r="AA351" s="2"/>
+    </row>
+    <row r="352" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -11530,9 +11547,9 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
-    </row>
-    <row r="353" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B353" s="2"/>
+      <c r="AA352" s="2"/>
+    </row>
+    <row r="353" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -11557,9 +11574,9 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
-    </row>
-    <row r="354" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B354" s="2"/>
+      <c r="AA353" s="2"/>
+    </row>
+    <row r="354" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -11584,9 +11601,9 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
-    </row>
-    <row r="355" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B355" s="2"/>
+      <c r="AA354" s="2"/>
+    </row>
+    <row r="355" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -11611,9 +11628,9 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
-    </row>
-    <row r="356" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B356" s="2"/>
+      <c r="AA355" s="2"/>
+    </row>
+    <row r="356" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -11638,9 +11655,9 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
-    </row>
-    <row r="357" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B357" s="2"/>
+      <c r="AA356" s="2"/>
+    </row>
+    <row r="357" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -11665,9 +11682,9 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
-    </row>
-    <row r="358" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B358" s="2"/>
+      <c r="AA357" s="2"/>
+    </row>
+    <row r="358" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -11692,9 +11709,9 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
-    </row>
-    <row r="359" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B359" s="2"/>
+      <c r="AA358" s="2"/>
+    </row>
+    <row r="359" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -11719,9 +11736,9 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
-    </row>
-    <row r="360" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B360" s="2"/>
+      <c r="AA359" s="2"/>
+    </row>
+    <row r="360" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -11746,9 +11763,9 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
-    </row>
-    <row r="361" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B361" s="2"/>
+      <c r="AA360" s="2"/>
+    </row>
+    <row r="361" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -11773,9 +11790,9 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
-    </row>
-    <row r="362" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B362" s="2"/>
+      <c r="AA361" s="2"/>
+    </row>
+    <row r="362" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -11800,9 +11817,9 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
-    </row>
-    <row r="363" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B363" s="2"/>
+      <c r="AA362" s="2"/>
+    </row>
+    <row r="363" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -11827,9 +11844,9 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
-    </row>
-    <row r="364" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B364" s="2"/>
+      <c r="AA363" s="2"/>
+    </row>
+    <row r="364" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -11854,9 +11871,9 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
-    </row>
-    <row r="365" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B365" s="2"/>
+      <c r="AA364" s="2"/>
+    </row>
+    <row r="365" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -11881,9 +11898,9 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
-    </row>
-    <row r="366" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B366" s="2"/>
+      <c r="AA365" s="2"/>
+    </row>
+    <row r="366" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -11908,9 +11925,9 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
-    </row>
-    <row r="367" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B367" s="2"/>
+      <c r="AA366" s="2"/>
+    </row>
+    <row r="367" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -11935,9 +11952,9 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
-    </row>
-    <row r="368" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B368" s="2"/>
+      <c r="AA367" s="2"/>
+    </row>
+    <row r="368" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -11962,9 +11979,9 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
-    </row>
-    <row r="369" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B369" s="2"/>
+      <c r="AA368" s="2"/>
+    </row>
+    <row r="369" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -11989,9 +12006,9 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
-    </row>
-    <row r="370" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B370" s="2"/>
+      <c r="AA369" s="2"/>
+    </row>
+    <row r="370" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -12016,9 +12033,9 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
-    </row>
-    <row r="371" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B371" s="2"/>
+      <c r="AA370" s="2"/>
+    </row>
+    <row r="371" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -12043,9 +12060,9 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
-    </row>
-    <row r="372" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B372" s="2"/>
+      <c r="AA371" s="2"/>
+    </row>
+    <row r="372" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -12070,9 +12087,9 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
-    </row>
-    <row r="373" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B373" s="2"/>
+      <c r="AA372" s="2"/>
+    </row>
+    <row r="373" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -12097,9 +12114,9 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
-    </row>
-    <row r="374" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B374" s="2"/>
+      <c r="AA373" s="2"/>
+    </row>
+    <row r="374" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -12124,9 +12141,9 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
-    </row>
-    <row r="375" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B375" s="2"/>
+      <c r="AA374" s="2"/>
+    </row>
+    <row r="375" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -12151,9 +12168,9 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
-    </row>
-    <row r="376" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B376" s="2"/>
+      <c r="AA375" s="2"/>
+    </row>
+    <row r="376" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -12178,9 +12195,9 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
-    </row>
-    <row r="377" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B377" s="2"/>
+      <c r="AA376" s="2"/>
+    </row>
+    <row r="377" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -12205,9 +12222,9 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
-    </row>
-    <row r="378" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B378" s="2"/>
+      <c r="AA377" s="2"/>
+    </row>
+    <row r="378" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -12232,9 +12249,9 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
-    </row>
-    <row r="379" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B379" s="2"/>
+      <c r="AA378" s="2"/>
+    </row>
+    <row r="379" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -12259,9 +12276,9 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
-    </row>
-    <row r="380" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B380" s="2"/>
+      <c r="AA379" s="2"/>
+    </row>
+    <row r="380" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -12286,9 +12303,9 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
-    </row>
-    <row r="381" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B381" s="2"/>
+      <c r="AA380" s="2"/>
+    </row>
+    <row r="381" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -12313,9 +12330,9 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
-    </row>
-    <row r="382" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B382" s="2"/>
+      <c r="AA381" s="2"/>
+    </row>
+    <row r="382" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -12340,9 +12357,9 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
-    </row>
-    <row r="383" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B383" s="2"/>
+      <c r="AA382" s="2"/>
+    </row>
+    <row r="383" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -12367,9 +12384,9 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
-    </row>
-    <row r="384" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B384" s="2"/>
+      <c r="AA383" s="2"/>
+    </row>
+    <row r="384" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -12394,9 +12411,9 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
-    </row>
-    <row r="385" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B385" s="2"/>
+      <c r="AA384" s="2"/>
+    </row>
+    <row r="385" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -12421,9 +12438,9 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
-    </row>
-    <row r="386" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B386" s="2"/>
+      <c r="AA385" s="2"/>
+    </row>
+    <row r="386" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -12448,9 +12465,9 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
-    </row>
-    <row r="387" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B387" s="2"/>
+      <c r="AA386" s="2"/>
+    </row>
+    <row r="387" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -12475,9 +12492,9 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
-    </row>
-    <row r="388" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B388" s="2"/>
+      <c r="AA387" s="2"/>
+    </row>
+    <row r="388" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -12502,9 +12519,9 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
-    </row>
-    <row r="389" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B389" s="2"/>
+      <c r="AA388" s="2"/>
+    </row>
+    <row r="389" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -12529,9 +12546,9 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
-    </row>
-    <row r="390" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B390" s="2"/>
+      <c r="AA389" s="2"/>
+    </row>
+    <row r="390" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -12556,9 +12573,9 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
-    </row>
-    <row r="391" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B391" s="2"/>
+      <c r="AA390" s="2"/>
+    </row>
+    <row r="391" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -12583,9 +12600,9 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
-    </row>
-    <row r="392" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B392" s="2"/>
+      <c r="AA391" s="2"/>
+    </row>
+    <row r="392" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -12610,9 +12627,9 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
-    </row>
-    <row r="393" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B393" s="2"/>
+      <c r="AA392" s="2"/>
+    </row>
+    <row r="393" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -12637,9 +12654,9 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
-    </row>
-    <row r="394" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B394" s="2"/>
+      <c r="AA393" s="2"/>
+    </row>
+    <row r="394" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -12664,9 +12681,9 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
-    </row>
-    <row r="395" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B395" s="2"/>
+      <c r="AA394" s="2"/>
+    </row>
+    <row r="395" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -12691,9 +12708,9 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
-    </row>
-    <row r="396" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B396" s="2"/>
+      <c r="AA395" s="2"/>
+    </row>
+    <row r="396" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -12718,9 +12735,9 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
-    </row>
-    <row r="397" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B397" s="2"/>
+      <c r="AA396" s="2"/>
+    </row>
+    <row r="397" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -12745,9 +12762,9 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
-    </row>
-    <row r="398" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B398" s="2"/>
+      <c r="AA397" s="2"/>
+    </row>
+    <row r="398" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -12772,9 +12789,9 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
-    </row>
-    <row r="399" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B399" s="2"/>
+      <c r="AA398" s="2"/>
+    </row>
+    <row r="399" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -12799,9 +12816,9 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
-    </row>
-    <row r="400" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B400" s="2"/>
+      <c r="AA399" s="2"/>
+    </row>
+    <row r="400" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -12826,9 +12843,9 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
-    </row>
-    <row r="401" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B401" s="2"/>
+      <c r="AA400" s="2"/>
+    </row>
+    <row r="401" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -12853,9 +12870,9 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
-    </row>
-    <row r="402" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B402" s="2"/>
+      <c r="AA401" s="2"/>
+    </row>
+    <row r="402" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -12880,9 +12897,9 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
-    </row>
-    <row r="403" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B403" s="2"/>
+      <c r="AA402" s="2"/>
+    </row>
+    <row r="403" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -12907,9 +12924,9 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
-    </row>
-    <row r="404" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B404" s="2"/>
+      <c r="AA403" s="2"/>
+    </row>
+    <row r="404" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -12934,9 +12951,9 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
-    </row>
-    <row r="405" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B405" s="2"/>
+      <c r="AA404" s="2"/>
+    </row>
+    <row r="405" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -12961,9 +12978,9 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
-    </row>
-    <row r="406" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B406" s="2"/>
+      <c r="AA405" s="2"/>
+    </row>
+    <row r="406" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -12988,9 +13005,9 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
-    </row>
-    <row r="407" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B407" s="2"/>
+      <c r="AA406" s="2"/>
+    </row>
+    <row r="407" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -13015,9 +13032,9 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
-    </row>
-    <row r="408" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B408" s="2"/>
+      <c r="AA407" s="2"/>
+    </row>
+    <row r="408" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -13042,9 +13059,9 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
-    </row>
-    <row r="409" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B409" s="2"/>
+      <c r="AA408" s="2"/>
+    </row>
+    <row r="409" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -13069,9 +13086,9 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
-    </row>
-    <row r="410" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B410" s="2"/>
+      <c r="AA409" s="2"/>
+    </row>
+    <row r="410" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -13096,9 +13113,9 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
-    </row>
-    <row r="411" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B411" s="2"/>
+      <c r="AA410" s="2"/>
+    </row>
+    <row r="411" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -13123,9 +13140,9 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
-    </row>
-    <row r="412" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B412" s="2"/>
+      <c r="AA411" s="2"/>
+    </row>
+    <row r="412" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -13150,9 +13167,9 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
-    </row>
-    <row r="413" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B413" s="2"/>
+      <c r="AA412" s="2"/>
+    </row>
+    <row r="413" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -13177,9 +13194,9 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
-    </row>
-    <row r="414" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B414" s="2"/>
+      <c r="AA413" s="2"/>
+    </row>
+    <row r="414" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -13204,9 +13221,9 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
-    </row>
-    <row r="415" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B415" s="2"/>
+      <c r="AA414" s="2"/>
+    </row>
+    <row r="415" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -13231,9 +13248,9 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
-    </row>
-    <row r="416" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B416" s="2"/>
+      <c r="AA415" s="2"/>
+    </row>
+    <row r="416" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -13258,9 +13275,9 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
-    </row>
-    <row r="417" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B417" s="2"/>
+      <c r="AA416" s="2"/>
+    </row>
+    <row r="417" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -13285,9 +13302,9 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
-    </row>
-    <row r="418" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B418" s="2"/>
+      <c r="AA417" s="2"/>
+    </row>
+    <row r="418" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -13312,9 +13329,9 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
-    </row>
-    <row r="419" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B419" s="2"/>
+      <c r="AA418" s="2"/>
+    </row>
+    <row r="419" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -13339,9 +13356,9 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
-    </row>
-    <row r="420" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B420" s="2"/>
+      <c r="AA419" s="2"/>
+    </row>
+    <row r="420" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -13366,9 +13383,9 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
-    </row>
-    <row r="421" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B421" s="2"/>
+      <c r="AA420" s="2"/>
+    </row>
+    <row r="421" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -13393,9 +13410,9 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
-    </row>
-    <row r="422" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B422" s="2"/>
+      <c r="AA421" s="2"/>
+    </row>
+    <row r="422" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -13420,9 +13437,9 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
-    </row>
-    <row r="423" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B423" s="2"/>
+      <c r="AA422" s="2"/>
+    </row>
+    <row r="423" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -13447,9 +13464,9 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
-    </row>
-    <row r="424" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B424" s="2"/>
+      <c r="AA423" s="2"/>
+    </row>
+    <row r="424" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -13474,9 +13491,9 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
-    </row>
-    <row r="425" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B425" s="2"/>
+      <c r="AA424" s="2"/>
+    </row>
+    <row r="425" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -13501,9 +13518,9 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
-    </row>
-    <row r="426" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B426" s="2"/>
+      <c r="AA425" s="2"/>
+    </row>
+    <row r="426" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -13528,9 +13545,9 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
-    </row>
-    <row r="427" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B427" s="2"/>
+      <c r="AA426" s="2"/>
+    </row>
+    <row r="427" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -13555,9 +13572,9 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
-    </row>
-    <row r="428" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B428" s="2"/>
+      <c r="AA427" s="2"/>
+    </row>
+    <row r="428" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -13582,9 +13599,9 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
-    </row>
-    <row r="429" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B429" s="2"/>
+      <c r="AA428" s="2"/>
+    </row>
+    <row r="429" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -13609,9 +13626,9 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
-    </row>
-    <row r="430" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B430" s="2"/>
+      <c r="AA429" s="2"/>
+    </row>
+    <row r="430" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -13636,9 +13653,9 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
-    </row>
-    <row r="431" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B431" s="2"/>
+      <c r="AA430" s="2"/>
+    </row>
+    <row r="431" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -13663,9 +13680,9 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
-    </row>
-    <row r="432" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B432" s="2"/>
+      <c r="AA431" s="2"/>
+    </row>
+    <row r="432" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -13690,9 +13707,9 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
-    </row>
-    <row r="433" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B433" s="2"/>
+      <c r="AA432" s="2"/>
+    </row>
+    <row r="433" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -13717,9 +13734,9 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
-    </row>
-    <row r="434" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B434" s="2"/>
+      <c r="AA433" s="2"/>
+    </row>
+    <row r="434" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -13744,9 +13761,9 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
-    </row>
-    <row r="435" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B435" s="2"/>
+      <c r="AA434" s="2"/>
+    </row>
+    <row r="435" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -13771,9 +13788,9 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
-    </row>
-    <row r="436" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B436" s="2"/>
+      <c r="AA435" s="2"/>
+    </row>
+    <row r="436" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -13798,9 +13815,9 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
-    </row>
-    <row r="437" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B437" s="2"/>
+      <c r="AA436" s="2"/>
+    </row>
+    <row r="437" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -13825,9 +13842,9 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
-    </row>
-    <row r="438" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B438" s="2"/>
+      <c r="AA437" s="2"/>
+    </row>
+    <row r="438" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -13852,9 +13869,9 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
-    </row>
-    <row r="439" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B439" s="2"/>
+      <c r="AA438" s="2"/>
+    </row>
+    <row r="439" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -13879,9 +13896,9 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
-    </row>
-    <row r="440" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B440" s="2"/>
+      <c r="AA439" s="2"/>
+    </row>
+    <row r="440" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -13906,9 +13923,9 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
-    </row>
-    <row r="441" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B441" s="2"/>
+      <c r="AA440" s="2"/>
+    </row>
+    <row r="441" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -13933,9 +13950,9 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
-    </row>
-    <row r="442" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B442" s="2"/>
+      <c r="AA441" s="2"/>
+    </row>
+    <row r="442" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -13960,9 +13977,9 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
-    </row>
-    <row r="443" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B443" s="2"/>
+      <c r="AA442" s="2"/>
+    </row>
+    <row r="443" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -13987,9 +14004,9 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
-    </row>
-    <row r="444" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B444" s="2"/>
+      <c r="AA443" s="2"/>
+    </row>
+    <row r="444" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -14014,9 +14031,9 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
-    </row>
-    <row r="445" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B445" s="2"/>
+      <c r="AA444" s="2"/>
+    </row>
+    <row r="445" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -14041,9 +14058,9 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
-    </row>
-    <row r="446" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B446" s="2"/>
+      <c r="AA445" s="2"/>
+    </row>
+    <row r="446" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -14068,9 +14085,9 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
-    </row>
-    <row r="447" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B447" s="2"/>
+      <c r="AA446" s="2"/>
+    </row>
+    <row r="447" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -14095,9 +14112,9 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
-    </row>
-    <row r="448" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B448" s="2"/>
+      <c r="AA447" s="2"/>
+    </row>
+    <row r="448" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -14122,9 +14139,9 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
-    </row>
-    <row r="449" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B449" s="2"/>
+      <c r="AA448" s="2"/>
+    </row>
+    <row r="449" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -14149,9 +14166,9 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
-    </row>
-    <row r="450" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B450" s="2"/>
+      <c r="AA449" s="2"/>
+    </row>
+    <row r="450" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -14176,9 +14193,9 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
-    </row>
-    <row r="451" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B451" s="2"/>
+      <c r="AA450" s="2"/>
+    </row>
+    <row r="451" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -14203,9 +14220,9 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
-    </row>
-    <row r="452" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B452" s="2"/>
+      <c r="AA451" s="2"/>
+    </row>
+    <row r="452" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -14230,9 +14247,9 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
-    </row>
-    <row r="453" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B453" s="2"/>
+      <c r="AA452" s="2"/>
+    </row>
+    <row r="453" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -14257,9 +14274,9 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
-    </row>
-    <row r="454" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B454" s="2"/>
+      <c r="AA453" s="2"/>
+    </row>
+    <row r="454" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -14284,9 +14301,9 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
-    </row>
-    <row r="455" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B455" s="2"/>
+      <c r="AA454" s="2"/>
+    </row>
+    <row r="455" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -14311,9 +14328,9 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
-    </row>
-    <row r="456" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B456" s="2"/>
+      <c r="AA455" s="2"/>
+    </row>
+    <row r="456" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -14338,9 +14355,9 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
-    </row>
-    <row r="457" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B457" s="2"/>
+      <c r="AA456" s="2"/>
+    </row>
+    <row r="457" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -14365,9 +14382,9 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
-    </row>
-    <row r="458" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B458" s="2"/>
+      <c r="AA457" s="2"/>
+    </row>
+    <row r="458" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -14392,9 +14409,9 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
-    </row>
-    <row r="459" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B459" s="2"/>
+      <c r="AA458" s="2"/>
+    </row>
+    <row r="459" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -14419,9 +14436,9 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
-    </row>
-    <row r="460" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B460" s="2"/>
+      <c r="AA459" s="2"/>
+    </row>
+    <row r="460" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -14446,9 +14463,9 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
-    </row>
-    <row r="461" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B461" s="2"/>
+      <c r="AA460" s="2"/>
+    </row>
+    <row r="461" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -14473,9 +14490,9 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
-    </row>
-    <row r="462" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B462" s="2"/>
+      <c r="AA461" s="2"/>
+    </row>
+    <row r="462" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -14500,9 +14517,9 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
-    </row>
-    <row r="463" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B463" s="2"/>
+      <c r="AA462" s="2"/>
+    </row>
+    <row r="463" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -14527,9 +14544,9 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
-    </row>
-    <row r="464" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B464" s="2"/>
+      <c r="AA463" s="2"/>
+    </row>
+    <row r="464" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -14554,9 +14571,9 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
-    </row>
-    <row r="465" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B465" s="2"/>
+      <c r="AA464" s="2"/>
+    </row>
+    <row r="465" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -14581,9 +14598,9 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
-    </row>
-    <row r="466" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B466" s="2"/>
+      <c r="AA465" s="2"/>
+    </row>
+    <row r="466" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -14608,9 +14625,9 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
-    </row>
-    <row r="467" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B467" s="2"/>
+      <c r="AA466" s="2"/>
+    </row>
+    <row r="467" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -14635,9 +14652,9 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
-    </row>
-    <row r="468" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B468" s="2"/>
+      <c r="AA467" s="2"/>
+    </row>
+    <row r="468" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -14662,9 +14679,9 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
-    </row>
-    <row r="469" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B469" s="2"/>
+      <c r="AA468" s="2"/>
+    </row>
+    <row r="469" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -14689,9 +14706,9 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
-    </row>
-    <row r="470" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B470" s="2"/>
+      <c r="AA469" s="2"/>
+    </row>
+    <row r="470" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -14716,9 +14733,9 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
-    </row>
-    <row r="471" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B471" s="2"/>
+      <c r="AA470" s="2"/>
+    </row>
+    <row r="471" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -14743,9 +14760,9 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
-    </row>
-    <row r="472" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B472" s="2"/>
+      <c r="AA471" s="2"/>
+    </row>
+    <row r="472" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -14770,9 +14787,9 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
-    </row>
-    <row r="473" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B473" s="2"/>
+      <c r="AA472" s="2"/>
+    </row>
+    <row r="473" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -14797,9 +14814,9 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
-    </row>
-    <row r="474" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B474" s="2"/>
+      <c r="AA473" s="2"/>
+    </row>
+    <row r="474" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -14824,9 +14841,9 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
-    </row>
-    <row r="475" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B475" s="2"/>
+      <c r="AA474" s="2"/>
+    </row>
+    <row r="475" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -14851,9 +14868,9 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
-    </row>
-    <row r="476" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B476" s="2"/>
+      <c r="AA475" s="2"/>
+    </row>
+    <row r="476" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -14878,9 +14895,9 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
-    </row>
-    <row r="477" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B477" s="2"/>
+      <c r="AA476" s="2"/>
+    </row>
+    <row r="477" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -14905,9 +14922,9 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
-    </row>
-    <row r="478" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B478" s="2"/>
+      <c r="AA477" s="2"/>
+    </row>
+    <row r="478" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -14932,9 +14949,9 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
-    </row>
-    <row r="479" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B479" s="2"/>
+      <c r="AA478" s="2"/>
+    </row>
+    <row r="479" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -14959,9 +14976,9 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
-    </row>
-    <row r="480" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B480" s="2"/>
+      <c r="AA479" s="2"/>
+    </row>
+    <row r="480" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -14986,9 +15003,9 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
-    </row>
-    <row r="481" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B481" s="2"/>
+      <c r="AA480" s="2"/>
+    </row>
+    <row r="481" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -15013,9 +15030,9 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
-    </row>
-    <row r="482" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B482" s="2"/>
+      <c r="AA481" s="2"/>
+    </row>
+    <row r="482" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -15040,9 +15057,9 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
-    </row>
-    <row r="483" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B483" s="2"/>
+      <c r="AA482" s="2"/>
+    </row>
+    <row r="483" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -15067,9 +15084,9 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
-    </row>
-    <row r="484" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B484" s="2"/>
+      <c r="AA483" s="2"/>
+    </row>
+    <row r="484" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -15094,9 +15111,9 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
-    </row>
-    <row r="485" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B485" s="2"/>
+      <c r="AA484" s="2"/>
+    </row>
+    <row r="485" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -15121,9 +15138,9 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
-    </row>
-    <row r="486" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B486" s="2"/>
+      <c r="AA485" s="2"/>
+    </row>
+    <row r="486" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -15148,9 +15165,9 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
-    </row>
-    <row r="487" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B487" s="2"/>
+      <c r="AA486" s="2"/>
+    </row>
+    <row r="487" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -15175,9 +15192,9 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
-    </row>
-    <row r="488" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B488" s="2"/>
+      <c r="AA487" s="2"/>
+    </row>
+    <row r="488" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -15202,9 +15219,9 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
-    </row>
-    <row r="489" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B489" s="2"/>
+      <c r="AA488" s="2"/>
+    </row>
+    <row r="489" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -15229,9 +15246,9 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
-    </row>
-    <row r="490" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B490" s="2"/>
+      <c r="AA489" s="2"/>
+    </row>
+    <row r="490" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -15256,9 +15273,9 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
-    </row>
-    <row r="491" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B491" s="2"/>
+      <c r="AA490" s="2"/>
+    </row>
+    <row r="491" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -15283,9 +15300,9 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
-    </row>
-    <row r="492" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B492" s="2"/>
+      <c r="AA491" s="2"/>
+    </row>
+    <row r="492" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -15310,9 +15327,9 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
-    </row>
-    <row r="493" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B493" s="2"/>
+      <c r="AA492" s="2"/>
+    </row>
+    <row r="493" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -15337,9 +15354,9 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
-    </row>
-    <row r="494" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B494" s="2"/>
+      <c r="AA493" s="2"/>
+    </row>
+    <row r="494" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -15364,9 +15381,9 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
-    </row>
-    <row r="495" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B495" s="2"/>
+      <c r="AA494" s="2"/>
+    </row>
+    <row r="495" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -15391,9 +15408,9 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
-    </row>
-    <row r="496" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B496" s="2"/>
+      <c r="AA495" s="2"/>
+    </row>
+    <row r="496" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -15418,9 +15435,9 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
-    </row>
-    <row r="497" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B497" s="2"/>
+      <c r="AA496" s="2"/>
+    </row>
+    <row r="497" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -15445,9 +15462,9 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
-    </row>
-    <row r="498" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B498" s="2"/>
+      <c r="AA497" s="2"/>
+    </row>
+    <row r="498" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -15472,9 +15489,9 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
-    </row>
-    <row r="499" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B499" s="2"/>
+      <c r="AA498" s="2"/>
+    </row>
+    <row r="499" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -15499,9 +15516,9 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
-    </row>
-    <row r="500" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B500" s="2"/>
+      <c r="AA499" s="2"/>
+    </row>
+    <row r="500" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -15526,9 +15543,9 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
-    </row>
-    <row r="501" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B501" s="2"/>
+      <c r="AA500" s="2"/>
+    </row>
+    <row r="501" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -15553,9 +15570,9 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
-    </row>
-    <row r="502" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B502" s="2"/>
+      <c r="AA501" s="2"/>
+    </row>
+    <row r="502" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -15580,9 +15597,9 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
-    </row>
-    <row r="503" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B503" s="2"/>
+      <c r="AA502" s="2"/>
+    </row>
+    <row r="503" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -15607,9 +15624,9 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
-    </row>
-    <row r="504" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B504" s="2"/>
+      <c r="AA503" s="2"/>
+    </row>
+    <row r="504" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -15634,9 +15651,9 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
-    </row>
-    <row r="505" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B505" s="2"/>
+      <c r="AA504" s="2"/>
+    </row>
+    <row r="505" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -15661,9 +15678,9 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
-    </row>
-    <row r="506" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B506" s="2"/>
+      <c r="AA505" s="2"/>
+    </row>
+    <row r="506" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -15688,9 +15705,9 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
-    </row>
-    <row r="507" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B507" s="2"/>
+      <c r="AA506" s="2"/>
+    </row>
+    <row r="507" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -15715,9 +15732,9 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
-    </row>
-    <row r="508" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B508" s="2"/>
+      <c r="AA507" s="2"/>
+    </row>
+    <row r="508" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -15742,9 +15759,9 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
-    </row>
-    <row r="509" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B509" s="2"/>
+      <c r="AA508" s="2"/>
+    </row>
+    <row r="509" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -15769,14 +15786,15 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
+      <c r="AA509" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15791,9 +15809,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="1.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion/Mega_planif.xlsx
+++ b/Gestion/Mega_planif.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\GitHub\ProjetS5\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gab49\Documents\GitHub\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="246">
   <si>
     <t>Objectif</t>
   </si>
@@ -460,18 +460,6 @@
     <t>2.T.2.4</t>
   </si>
   <si>
-    <t>FFT sur le son reçu</t>
-  </si>
-  <si>
-    <t>Analyse de la composition fréquentiel du message reçu</t>
-  </si>
-  <si>
-    <t>Faire une corrélation avec les sons en bibliothèque</t>
-  </si>
-  <si>
-    <t>Conception de filtres ????</t>
-  </si>
-  <si>
     <t>Interfaçage et exportation des résultats</t>
   </si>
   <si>
@@ -719,13 +707,70 @@
   </si>
   <si>
     <t xml:space="preserve">Constante </t>
+  </si>
+  <si>
+    <t>3 Hz de différence</t>
+  </si>
+  <si>
+    <t>+/- 3Hz</t>
+  </si>
+  <si>
+    <t>5e octave</t>
+  </si>
+  <si>
+    <t>+/1</t>
+  </si>
+  <si>
+    <t>200 ms</t>
+  </si>
+  <si>
+    <t>+/- 20 ms</t>
+  </si>
+  <si>
+    <t>2.T.2.6</t>
+  </si>
+  <si>
+    <t>Conception du filtre passe-bas</t>
+  </si>
+  <si>
+    <t>Conception du filtre passe-haut</t>
+  </si>
+  <si>
+    <t>Faire une auto-corrélation</t>
+  </si>
+  <si>
+    <t>Détecter les notes singuliaires</t>
+  </si>
+  <si>
+    <t>FFT sur le son reçu (résolution)</t>
+  </si>
+  <si>
+    <t>15 Hz</t>
+  </si>
+  <si>
+    <t>- 1Hz</t>
+  </si>
+  <si>
+    <t>Analyse de la composition fréquentiel du message reçu (seuil)</t>
+  </si>
+  <si>
+    <t>523.35 Hz</t>
+  </si>
+  <si>
+    <t>261 Hz</t>
+  </si>
+  <si>
+    <t>- 20 Hz</t>
+  </si>
+  <si>
+    <t>+ 20 Hz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +788,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -826,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -874,6 +926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,7 +936,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1204,39 +1262,39 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="47.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1250,82 +1308,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA509"/>
+  <dimension ref="A1:AA510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="3" customWidth="1"/>
-    <col min="2" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:27" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1381,8 +1439,8 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1414,8 +1472,8 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1446,8 +1504,8 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1478,8 +1536,8 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1516,8 +1574,8 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1556,8 +1614,8 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1594,7 +1652,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -1625,8 +1683,8 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1663,8 +1721,8 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1701,7 +1759,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1711,7 +1769,7 @@
         <v>53</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>40</v>
@@ -1738,8 +1796,8 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1776,8 +1834,8 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1814,7 +1872,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
         <v>61</v>
@@ -1845,7 +1903,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -1882,7 +1940,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>68</v>
       </c>
@@ -1913,7 +1971,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
         <v>70</v>
@@ -1944,7 +2002,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -1982,7 +2040,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
@@ -2020,7 +2078,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
@@ -2058,7 +2116,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
         <v>77</v>
@@ -2089,7 +2147,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
@@ -2127,7 +2185,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -2165,7 +2223,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
@@ -2203,7 +2261,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
         <v>86</v>
@@ -2234,7 +2292,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
@@ -2272,7 +2330,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -2310,7 +2368,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -2348,7 +2406,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -2380,7 +2438,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2411,7 +2469,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
@@ -2442,7 +2500,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
@@ -2451,11 +2509,15 @@
       <c r="F35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2475,7 +2537,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
@@ -2484,11 +2546,15 @@
       <c r="F36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="G36" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2508,7 +2574,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
@@ -2517,11 +2583,11 @@
       <c r="F37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2541,7 +2607,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -2550,11 +2616,15 @@
       <c r="F38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="G38" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2574,7 +2644,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
         <v>138</v>
@@ -2605,20 +2675,24 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2638,17 +2712,17 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2671,20 +2745,24 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="F42" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2704,20 +2782,24 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="F43" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2737,23 +2819,23 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>38</v>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2774,20 +2856,24 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2807,16 +2893,18 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="46" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2838,14 +2926,14 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2869,29 +2957,22 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="D48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2">
-        <v>2</v>
-      </c>
-      <c r="L48" s="2">
-        <v>4</v>
-      </c>
-      <c r="M48" s="2">
-        <f>L48*K48</f>
-        <v>8</v>
-      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -2907,14 +2988,14 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2924,11 +3005,11 @@
         <v>2</v>
       </c>
       <c r="L49" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" ref="M49:M50" si="3">L49*K49</f>
-        <v>2</v>
+        <f>L49*K49</f>
+        <v>8</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2945,14 +3026,14 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2965,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M50:M51" si="3">L50*K50</f>
         <v>2</v>
       </c>
       <c r="N50" s="2"/>
@@ -2983,22 +3064,29 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="K51" s="2">
+        <v>2</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3014,29 +3102,22 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="2">
-        <v>2</v>
-      </c>
-      <c r="L52" s="2">
-        <v>3</v>
-      </c>
-      <c r="M52" s="2">
-        <f>L52*K52</f>
-        <v>6</v>
-      </c>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -3052,14 +3133,14 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3069,11 +3150,11 @@
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53:M54" si="4">L53*K53</f>
-        <v>20</v>
+        <f>L53*K53</f>
+        <v>6</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3090,14 +3171,14 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3107,11 +3188,11 @@
         <v>2</v>
       </c>
       <c r="L54" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="M54:M55" si="4">L54*K54</f>
+        <v>20</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -3128,22 +3209,29 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3159,29 +3247,22 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="D56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2">
-        <v>2</v>
-      </c>
-      <c r="L56" s="2">
-        <v>3</v>
-      </c>
-      <c r="M56" s="2">
-        <f>L56*K56</f>
-        <v>6</v>
-      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -3197,14 +3278,14 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3214,11 +3295,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
+        <v>3</v>
+      </c>
+      <c r="M57" s="2">
+        <f>L57*K57</f>
         <v>6</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" ref="M57:M58" si="5">L57*K57</f>
-        <v>12</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3235,14 +3316,14 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3252,11 +3333,11 @@
         <v>2</v>
       </c>
       <c r="L58" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" ref="M58:M59" si="5">L58*K58</f>
+        <v>12</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -3273,23 +3354,29 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
-        <v>3</v>
-      </c>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>148</v>
+      <c r="E59" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="K59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
+        <v>4</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3305,15 +3392,15 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="2" t="s">
-        <v>119</v>
-      </c>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -3337,15 +3424,15 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="C61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -3369,25 +3456,19 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="D62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3407,24 +3488,24 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -3445,24 +3526,24 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>228</v>
+        <v>154</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3483,21 +3564,25 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3517,24 +3602,21 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3554,23 +3636,23 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3591,18 +3673,24 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -3622,24 +3710,18 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="D69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -3659,23 +3741,23 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>195</v>
+        <v>157</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3696,18 +3778,24 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -3727,24 +3815,18 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="D72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3764,20 +3846,20 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>226</v>
+        <v>209</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>36</v>
@@ -3801,14 +3883,23 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:27" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>156</v>
+        <v>220</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -3829,23 +3920,14 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="D75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3866,20 +3948,20 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>38</v>
@@ -3903,20 +3985,24 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -3936,16 +4022,18 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -3967,18 +4055,16 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="D79" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4000,17 +4086,17 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -4033,17 +4119,17 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -4066,16 +4152,18 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4097,24 +4185,18 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>221</v>
-      </c>
+      <c r="D83" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4134,18 +4216,24 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4165,24 +4253,18 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="D85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4202,20 +4284,20 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>38</v>
@@ -4239,19 +4321,24 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B87" s="3"/>
-      <c r="C87" s="2" t="s">
-        <v>125</v>
-      </c>
+    <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -4271,15 +4358,15 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="C88" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -4303,30 +4390,23 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="D89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="2"/>
       <c r="F89" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="2">
-        <v>2</v>
-      </c>
-      <c r="L89" s="2">
-        <v>4</v>
-      </c>
-      <c r="M89" s="2">
-        <f>L89*K89</f>
-        <v>8</v>
-      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -4342,15 +4422,15 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -4360,11 +4440,11 @@
         <v>2</v>
       </c>
       <c r="L90" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" ref="M90:M91" si="6">L90*K90</f>
-        <v>2</v>
+        <f>L90*K90</f>
+        <v>8</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -4381,15 +4461,15 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -4402,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M91:M92" si="6">L91*K91</f>
         <v>2</v>
       </c>
       <c r="N91" s="2"/>
@@ -4420,23 +4500,30 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F92" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="K92" s="2">
+        <v>2</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -4452,30 +4539,23 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="D93" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="2">
-        <v>2</v>
-      </c>
-      <c r="L93" s="2">
-        <v>3</v>
-      </c>
-      <c r="M93" s="2">
-        <f>L93*K93</f>
-        <v>6</v>
-      </c>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -4491,15 +4571,15 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4509,11 +4589,11 @@
         <v>2</v>
       </c>
       <c r="L94" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" ref="M94:M95" si="7">L94*K94</f>
-        <v>20</v>
+        <f>L94*K94</f>
+        <v>6</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -4530,15 +4610,15 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -4548,11 +4628,11 @@
         <v>2</v>
       </c>
       <c r="L95" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M95" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" ref="M95:M96" si="7">L95*K95</f>
+        <v>20</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -4569,23 +4649,30 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="F96" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <v>2</v>
+      </c>
+      <c r="M96" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4601,30 +4688,23 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="D97" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="2">
-        <v>2</v>
-      </c>
-      <c r="L97" s="2">
-        <v>3</v>
-      </c>
-      <c r="M97" s="2">
-        <f>L97*K97</f>
-        <v>6</v>
-      </c>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -4640,15 +4720,15 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4658,11 +4738,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
+        <v>3</v>
+      </c>
+      <c r="M98" s="2">
+        <f>L98*K98</f>
         <v>6</v>
-      </c>
-      <c r="M98" s="2">
-        <f t="shared" ref="M98:M99" si="8">L98*K98</f>
-        <v>12</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4679,15 +4759,15 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -4697,11 +4777,11 @@
         <v>2</v>
       </c>
       <c r="L99" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M99" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" ref="M99:M100" si="8">L99*K99</f>
+        <v>12</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -4718,18 +4798,30 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="K100" s="2">
+        <v>2</v>
+      </c>
+      <c r="L100" s="2">
+        <v>4</v>
+      </c>
+      <c r="M100" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -4745,7 +4837,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4772,7 +4864,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4799,7 +4891,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4826,7 +4918,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4853,7 +4945,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4880,7 +4972,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4907,7 +4999,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4934,7 +5026,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4961,7 +5053,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4988,7 +5080,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -5015,7 +5107,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -5042,7 +5134,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5069,7 +5161,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5096,7 +5188,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5123,7 +5215,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5150,7 +5242,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5177,7 +5269,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -5204,7 +5296,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5231,7 +5323,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5258,7 +5350,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5285,7 +5377,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5312,7 +5404,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5339,7 +5431,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -5366,7 +5458,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5393,7 +5485,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5420,7 +5512,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5447,7 +5539,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5474,7 +5566,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5501,7 +5593,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -5528,7 +5620,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5555,7 +5647,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5582,7 +5674,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5609,7 +5701,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5636,7 +5728,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5663,7 +5755,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5690,7 +5782,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5717,7 +5809,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5744,7 +5836,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5771,7 +5863,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5798,7 +5890,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5825,7 +5917,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5852,7 +5944,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5879,7 +5971,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5906,7 +5998,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5933,7 +6025,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5960,7 +6052,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5987,7 +6079,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -6014,7 +6106,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -6041,7 +6133,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -6068,7 +6160,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -6095,7 +6187,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -6122,7 +6214,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -6149,7 +6241,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -6176,7 +6268,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -6203,7 +6295,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -6230,7 +6322,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -6257,7 +6349,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -6284,7 +6376,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -6311,7 +6403,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -6338,7 +6430,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6365,7 +6457,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6392,7 +6484,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -6419,7 +6511,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -6446,7 +6538,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6473,7 +6565,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6500,7 +6592,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6527,7 +6619,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6554,7 +6646,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6581,7 +6673,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6608,7 +6700,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6635,7 +6727,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6662,7 +6754,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6689,7 +6781,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6716,7 +6808,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6743,7 +6835,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6770,7 +6862,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6797,7 +6889,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6824,7 +6916,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6851,7 +6943,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6878,7 +6970,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6905,7 +6997,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6932,7 +7024,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6959,7 +7051,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6986,7 +7078,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7013,7 +7105,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7040,7 +7132,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7067,7 +7159,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7094,7 +7186,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7121,7 +7213,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7148,7 +7240,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7175,7 +7267,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7202,7 +7294,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7229,7 +7321,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -7256,7 +7348,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -7283,7 +7375,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -7310,7 +7402,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -7337,7 +7429,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -7364,7 +7456,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -7391,7 +7483,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -7418,7 +7510,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -7445,7 +7537,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -7472,7 +7564,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -7499,7 +7591,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -7526,7 +7618,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -7553,7 +7645,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -7580,7 +7672,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -7607,7 +7699,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -7634,7 +7726,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -7661,7 +7753,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -7688,7 +7780,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -7715,7 +7807,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -7742,7 +7834,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -7769,7 +7861,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -7796,7 +7888,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -7823,7 +7915,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -7850,7 +7942,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -7877,7 +7969,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -7904,7 +7996,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -7931,7 +8023,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -7958,7 +8050,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -7985,7 +8077,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -8012,7 +8104,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -8039,7 +8131,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -8066,7 +8158,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -8093,7 +8185,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -8120,7 +8212,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8147,7 +8239,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -8174,7 +8266,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -8201,7 +8293,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -8228,7 +8320,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -8255,7 +8347,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -8282,7 +8374,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -8309,7 +8401,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -8336,7 +8428,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -8363,7 +8455,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -8390,7 +8482,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -8417,7 +8509,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -8444,7 +8536,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -8471,7 +8563,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -8498,7 +8590,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -8525,7 +8617,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -8552,7 +8644,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -8579,7 +8671,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -8606,7 +8698,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -8633,7 +8725,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -8660,7 +8752,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -8687,7 +8779,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -8714,7 +8806,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -8741,7 +8833,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -8768,7 +8860,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -8795,7 +8887,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -8822,7 +8914,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -8849,7 +8941,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -8876,7 +8968,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -8903,7 +8995,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -8930,7 +9022,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -8957,7 +9049,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -8984,7 +9076,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -9011,7 +9103,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -9038,7 +9130,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -9065,7 +9157,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -9092,7 +9184,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -9119,7 +9211,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -9146,7 +9238,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -9173,7 +9265,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -9200,7 +9292,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -9227,7 +9319,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -9254,7 +9346,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -9281,7 +9373,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -9308,7 +9400,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -9335,7 +9427,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -9362,7 +9454,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -9389,7 +9481,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -9416,7 +9508,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -9443,7 +9535,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -9470,7 +9562,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -9497,7 +9589,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -9524,7 +9616,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -9551,7 +9643,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -9578,7 +9670,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -9605,7 +9697,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -9632,7 +9724,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -9659,7 +9751,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -9686,7 +9778,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -9713,7 +9805,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -9740,7 +9832,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -9767,7 +9859,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -9794,7 +9886,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -9821,7 +9913,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -9848,7 +9940,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -9875,7 +9967,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -9902,7 +9994,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -9929,7 +10021,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -9956,7 +10048,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -9983,7 +10075,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -10010,7 +10102,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -10037,7 +10129,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -10064,7 +10156,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -10091,7 +10183,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -10118,7 +10210,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -10145,7 +10237,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -10172,7 +10264,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -10199,7 +10291,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -10226,7 +10318,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -10253,7 +10345,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -10280,7 +10372,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -10307,7 +10399,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -10334,7 +10426,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -10361,7 +10453,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -10388,7 +10480,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -10415,7 +10507,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -10442,7 +10534,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -10469,7 +10561,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -10496,7 +10588,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -10523,7 +10615,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -10550,7 +10642,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -10577,7 +10669,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -10604,7 +10696,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -10631,7 +10723,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -10658,7 +10750,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -10685,7 +10777,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -10712,7 +10804,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -10739,7 +10831,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -10766,7 +10858,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -10793,7 +10885,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -10820,7 +10912,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -10847,7 +10939,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -10874,7 +10966,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -10901,7 +10993,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -10928,7 +11020,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -10955,7 +11047,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -10982,7 +11074,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -11009,7 +11101,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -11036,7 +11128,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -11063,7 +11155,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -11090,7 +11182,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -11117,7 +11209,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -11144,7 +11236,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -11171,7 +11263,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -11198,7 +11290,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -11225,7 +11317,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -11252,7 +11344,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -11279,7 +11371,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -11306,7 +11398,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -11333,7 +11425,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -11360,7 +11452,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -11387,7 +11479,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -11414,7 +11506,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -11441,7 +11533,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -11468,7 +11560,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -11495,7 +11587,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -11522,7 +11614,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -11549,7 +11641,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -11576,7 +11668,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -11603,7 +11695,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -11630,7 +11722,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -11657,7 +11749,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -11684,7 +11776,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -11711,7 +11803,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -11738,7 +11830,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -11765,7 +11857,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -11792,7 +11884,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -11819,7 +11911,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -11846,7 +11938,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -11873,7 +11965,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -11900,7 +11992,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -11927,7 +12019,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -11954,7 +12046,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -11981,7 +12073,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -12008,7 +12100,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -12035,7 +12127,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -12062,7 +12154,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -12089,7 +12181,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -12116,7 +12208,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -12143,7 +12235,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -12170,7 +12262,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -12197,7 +12289,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -12224,7 +12316,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -12251,7 +12343,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -12278,7 +12370,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -12305,7 +12397,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -12332,7 +12424,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -12359,7 +12451,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -12386,7 +12478,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -12413,7 +12505,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -12440,7 +12532,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -12467,7 +12559,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -12494,7 +12586,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -12521,7 +12613,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -12548,7 +12640,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -12575,7 +12667,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -12602,7 +12694,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -12629,7 +12721,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -12656,7 +12748,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -12683,7 +12775,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -12710,7 +12802,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -12737,7 +12829,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -12764,7 +12856,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -12791,7 +12883,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -12818,7 +12910,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -12845,7 +12937,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -12872,7 +12964,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -12899,7 +12991,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -12926,7 +13018,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -12953,7 +13045,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -12980,7 +13072,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -13007,7 +13099,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -13034,7 +13126,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -13061,7 +13153,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -13088,7 +13180,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -13115,7 +13207,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -13142,7 +13234,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -13169,7 +13261,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -13196,7 +13288,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -13223,7 +13315,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -13250,7 +13342,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -13277,7 +13369,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -13304,7 +13396,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -13331,7 +13423,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -13358,7 +13450,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -13385,7 +13477,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -13412,7 +13504,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -13439,7 +13531,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -13466,7 +13558,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -13493,7 +13585,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -13520,7 +13612,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -13547,7 +13639,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -13574,7 +13666,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -13601,7 +13693,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -13628,7 +13720,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -13655,7 +13747,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -13682,7 +13774,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -13709,7 +13801,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -13736,7 +13828,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -13763,7 +13855,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -13790,7 +13882,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -13817,7 +13909,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -13844,7 +13936,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -13871,7 +13963,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -13898,7 +13990,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -13925,7 +14017,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -13952,7 +14044,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -13979,7 +14071,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -14006,7 +14098,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -14033,7 +14125,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -14060,7 +14152,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -14087,7 +14179,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -14114,7 +14206,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -14141,7 +14233,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -14168,7 +14260,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -14195,7 +14287,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -14222,7 +14314,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -14249,7 +14341,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -14276,7 +14368,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -14303,7 +14395,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -14330,7 +14422,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -14357,7 +14449,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -14384,7 +14476,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -14411,7 +14503,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -14438,7 +14530,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -14465,7 +14557,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -14492,7 +14584,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -14519,7 +14611,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -14546,7 +14638,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -14573,7 +14665,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -14600,7 +14692,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -14627,7 +14719,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -14654,7 +14746,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -14681,7 +14773,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -14708,7 +14800,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -14735,7 +14827,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -14762,7 +14854,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -14789,7 +14881,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -14816,7 +14908,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -14843,7 +14935,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -14870,7 +14962,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -14897,7 +14989,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -14924,7 +15016,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -14951,7 +15043,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -14978,7 +15070,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -15005,7 +15097,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -15032,7 +15124,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -15059,7 +15151,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -15086,7 +15178,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -15113,7 +15205,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -15140,7 +15232,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -15167,7 +15259,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -15194,7 +15286,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -15221,7 +15313,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -15248,7 +15340,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -15275,7 +15367,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -15302,7 +15394,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -15329,7 +15421,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -15356,7 +15448,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -15383,7 +15475,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
@@ -15410,7 +15502,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
@@ -15437,7 +15529,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
       <c r="E497" s="2"/>
@@ -15464,7 +15556,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
       <c r="E498" s="2"/>
@@ -15491,7 +15583,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
@@ -15518,7 +15610,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
@@ -15545,7 +15637,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
@@ -15572,7 +15664,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
@@ -15599,7 +15691,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
@@ -15626,7 +15718,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
@@ -15653,7 +15745,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
@@ -15680,7 +15772,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
       <c r="E506" s="2"/>
@@ -15707,7 +15799,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
       <c r="E507" s="2"/>
@@ -15734,7 +15826,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
       <c r="E508" s="2"/>
@@ -15761,7 +15853,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
       <c r="E509" s="2"/>
@@ -15788,6 +15880,33 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
+    <row r="510" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+      <c r="K510" s="2"/>
+      <c r="L510" s="2"/>
+      <c r="M510" s="2"/>
+      <c r="N510" s="2"/>
+      <c r="O510" s="2"/>
+      <c r="P510" s="2"/>
+      <c r="Q510" s="2"/>
+      <c r="R510" s="2"/>
+      <c r="S510" s="2"/>
+      <c r="T510" s="2"/>
+      <c r="U510" s="2"/>
+      <c r="V510" s="2"/>
+      <c r="W510" s="2"/>
+      <c r="X510" s="2"/>
+      <c r="Y510" s="2"/>
+      <c r="Z510" s="2"/>
+      <c r="AA510" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
@@ -15809,9 +15928,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="1.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="1.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gestion/Mega_planif.xlsx
+++ b/Gestion/Mega_planif.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
   <si>
     <t>Objectif</t>
   </si>
@@ -719,6 +719,27 @@
   </si>
   <si>
     <t xml:space="preserve">Constante </t>
+  </si>
+  <si>
+    <t>Détection des notes</t>
+  </si>
+  <si>
+    <t>2.T.2.6</t>
+  </si>
+  <si>
+    <t>Les 7 notes</t>
+  </si>
+  <si>
+    <t>2.T.2.8</t>
+  </si>
+  <si>
+    <t>Détection exacte</t>
+  </si>
+  <si>
+    <t>1.T.2.6</t>
+  </si>
+  <si>
+    <t>Détection de différence</t>
   </si>
 </sst>
 </file>
@@ -757,7 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +904,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,13 +1273,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA509"/>
+  <dimension ref="A1:AA512"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1293,7 @@
     <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1310,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1327,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1348,7 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1381,8 +1404,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1414,8 +1436,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1446,8 +1467,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1478,8 +1498,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1516,8 +1535,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1556,8 +1574,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1594,7 +1611,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -1625,8 +1642,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1663,8 +1679,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1701,7 +1716,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1738,31 +1753,32 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+    <row r="15" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1776,11 +1792,10 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="20" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1800,7 +1815,9 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1814,24 +1831,32 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1845,24 +1870,18 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1882,18 +1901,24 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1913,14 +1938,14 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
+    <row r="20" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1944,29 +1969,22 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="2">
-        <v>2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>4</v>
-      </c>
-      <c r="M21" s="2">
-        <f>L21*K21</f>
-        <v>8</v>
-      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1982,14 +2000,14 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1999,11 +2017,11 @@
         <v>2</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" ref="M22:M23" si="0">L22*K22</f>
-        <v>2</v>
+        <f>L22*K22</f>
+        <v>8</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2020,14 +2038,14 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2040,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M23:M24" si="0">L23*K23</f>
         <v>2</v>
       </c>
       <c r="N23" s="2"/>
@@ -2058,22 +2076,29 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2089,29 +2114,22 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <f>L25*K25</f>
-        <v>2</v>
-      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2127,14 +2145,14 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2144,11 +2162,11 @@
         <v>2</v>
       </c>
       <c r="L26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26:M27" si="1">L26*K26</f>
-        <v>8</v>
+        <f>L26*K26</f>
+        <v>2</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2165,14 +2183,14 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2182,11 +2200,11 @@
         <v>2</v>
       </c>
       <c r="L27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="M27:M28" si="1">L27*K27</f>
+        <v>8</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2203,22 +2221,29 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2234,29 +2259,22 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <f>L29*K29</f>
-        <v>2</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2272,14 +2290,14 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2289,11 +2307,11 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" ref="M30:M31" si="2">L30*K30</f>
-        <v>5</v>
+        <f>L30*K30</f>
+        <v>2</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2310,14 +2328,14 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2327,11 +2345,11 @@
         <v>2</v>
       </c>
       <c r="L31" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" ref="M31:M32" si="2">L31*K31</f>
+        <v>5</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2348,23 +2366,29 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>2</v>
-      </c>
+    <row r="32" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="2">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2380,19 +2404,20 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2411,14 +2436,14 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2442,18 +2467,16 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2475,14 +2498,14 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>229</v>
@@ -2508,14 +2531,14 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>229</v>
@@ -2541,14 +2564,14 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>229</v>
@@ -2574,16 +2597,18 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2605,18 +2630,16 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="D40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2638,14 +2661,14 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>229</v>
@@ -2671,14 +2694,14 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>229</v>
@@ -2704,14 +2727,14 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>229</v>
@@ -2737,24 +2760,20 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2774,20 +2793,24 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2807,24 +2830,32 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="46" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="E46" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -2838,24 +2869,32 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="6"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2869,31 +2908,28 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="2"/>
+      <c r="E48" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2">
-        <v>2</v>
-      </c>
-      <c r="L48" s="2">
-        <v>4</v>
-      </c>
-      <c r="M48" s="2">
-        <f>L48*K48</f>
-        <v>8</v>
-      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2908,28 +2944,21 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2">
-        <v>2</v>
-      </c>
-      <c r="L49" s="2">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" ref="M49:M50" si="3">L49*K49</f>
-        <v>2</v>
-      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -2947,27 +2976,20 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2">
-        <v>2</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -2985,20 +3007,27 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="K51" s="2">
+        <v>2</v>
+      </c>
+      <c r="L51" s="2">
+        <v>4</v>
+      </c>
+      <c r="M51" s="2">
+        <f>L51*K51</f>
+        <v>8</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3018,10 +3047,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3031,11 +3060,11 @@
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
-        <f>L52*K52</f>
-        <v>6</v>
+        <f t="shared" ref="M52:M53" si="3">L52*K52</f>
+        <v>2</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3056,10 +3085,10 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3069,11 +3098,11 @@
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53:M54" si="4">L53*K53</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3092,27 +3121,20 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="D54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2">
-        <v>2</v>
-      </c>
-      <c r="L54" s="2">
-        <v>2</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3130,20 +3152,27 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3</v>
+      </c>
+      <c r="M55" s="2">
+        <f>L55*K55</f>
+        <v>6</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3163,10 +3192,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3176,11 +3205,11 @@
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M56" s="2">
-        <f>L56*K56</f>
-        <v>6</v>
+        <f t="shared" ref="M56:M57" si="4">L56*K56</f>
+        <v>20</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -3201,10 +3230,10 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3214,11 +3243,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" ref="M57:M58" si="5">L57*K57</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3237,27 +3266,20 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2">
-        <v>2</v>
-      </c>
-      <c r="L58" s="2">
-        <v>4</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3274,22 +3296,28 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
-        <v>3</v>
-      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>148</v>
+      <c r="E59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="K59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
+        <v>3</v>
+      </c>
+      <c r="M59" s="2">
+        <f>L59*K59</f>
+        <v>6</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3306,22 +3334,28 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>149</v>
+      <c r="E60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="K60" s="2">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2">
+        <v>6</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" ref="M60:M61" si="5">L60*K60</f>
+        <v>12</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -3338,22 +3372,28 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>150</v>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="K61" s="2">
+        <v>2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>4</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -3369,25 +3409,19 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="3"/>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3409,23 +3443,17 @@
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3448,22 +3476,16 @@
     <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3483,21 +3505,25 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3517,23 +3543,24 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>191</v>
+        <v>158</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3554,20 +3581,21 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>193</v>
+        <v>227</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>66</v>
@@ -3591,16 +3619,19 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3626,19 +3657,19 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3663,19 +3694,19 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>195</v>
+        <v>206</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3699,14 +3730,14 @@
     <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3731,13 +3762,13 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>214</v>
+        <v>161</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>215</v>
@@ -3764,23 +3795,23 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>226</v>
+        <v>162</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3804,12 +3835,15 @@
     <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3833,19 +3867,19 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3866,23 +3900,23 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>212</v>
+        <v>224</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3905,18 +3939,13 @@
     </row>
     <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="D77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+        <v>156</v>
+      </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -3938,16 +3967,22 @@
     </row>
     <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -3971,16 +4006,20 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4004,10 +4043,10 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>229</v>
@@ -4035,16 +4074,14 @@
     </row>
     <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="D81" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4068,14 +4105,16 @@
     </row>
     <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4101,20 +4140,16 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4136,15 +4171,17 @@
     </row>
     <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -4167,22 +4204,16 @@
     </row>
     <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="D85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4206,19 +4237,19 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -4239,18 +4270,17 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B87" s="3"/>
-      <c r="C87" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="2"/>
+    <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="5" t="s">
-        <v>69</v>
+      <c r="F87" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -4271,19 +4301,24 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
+    <row r="88" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4303,30 +4338,28 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B89" s="3"/>
+    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="2">
-        <v>2</v>
-      </c>
-      <c r="L89" s="2">
-        <v>4</v>
-      </c>
-      <c r="M89" s="2">
-        <f>L89*K89</f>
-        <v>8</v>
-      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -4344,28 +4377,21 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2">
-        <v>2</v>
-      </c>
-      <c r="L90" s="2">
-        <v>1</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" ref="M90:M91" si="6">L90*K90</f>
-        <v>2</v>
-      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -4384,27 +4410,20 @@
     <row r="91" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="D91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="2">
-        <v>2</v>
-      </c>
-      <c r="L91" s="2">
-        <v>1</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -4423,20 +4442,27 @@
     <row r="92" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F92" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="K92" s="2">
+        <v>2</v>
+      </c>
+      <c r="L92" s="2">
+        <v>4</v>
+      </c>
+      <c r="M92" s="2">
+        <f>L92*K92</f>
+        <v>8</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -4457,10 +4483,10 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4470,11 +4496,11 @@
         <v>2</v>
       </c>
       <c r="L93" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M93" s="2">
-        <f>L93*K93</f>
-        <v>6</v>
+        <f t="shared" ref="M93:M94" si="6">L93*K93</f>
+        <v>2</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4496,10 +4522,10 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4509,11 +4535,11 @@
         <v>2</v>
       </c>
       <c r="L94" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" ref="M94:M95" si="7">L94*K94</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -4533,27 +4559,20 @@
     <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="D95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2">
-        <v>2</v>
-      </c>
-      <c r="L95" s="2">
-        <v>2</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4572,20 +4591,27 @@
     <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F96" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <v>3</v>
+      </c>
+      <c r="M96" s="2">
+        <f>L96*K96</f>
+        <v>6</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4606,10 +4632,10 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4619,11 +4645,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M97" s="2">
-        <f>L97*K97</f>
-        <v>6</v>
+        <f t="shared" ref="M97:M98" si="7">L97*K97</f>
+        <v>20</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4645,10 +4671,10 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4658,11 +4684,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" ref="M98:M99" si="8">L98*K98</f>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4682,27 +4708,20 @@
     <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="D99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2">
-        <v>2</v>
-      </c>
-      <c r="L99" s="2">
-        <v>4</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4719,17 +4738,29 @@
       <c r="AA99" s="2"/>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="K100" s="2">
+        <v>2</v>
+      </c>
+      <c r="L100" s="2">
+        <v>3</v>
+      </c>
+      <c r="M100" s="2">
+        <f>L100*K100</f>
+        <v>6</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -4746,17 +4777,29 @@
       <c r="AA100" s="2"/>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="K101" s="2">
+        <v>2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>6</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" ref="M101:M102" si="8">L101*K101</f>
+        <v>12</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -4773,17 +4816,29 @@
       <c r="AA101" s="2"/>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="K102" s="2">
+        <v>2</v>
+      </c>
+      <c r="L102" s="2">
+        <v>4</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -15787,6 +15842,87 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
+    </row>
+    <row r="510" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+      <c r="K510" s="2"/>
+      <c r="L510" s="2"/>
+      <c r="M510" s="2"/>
+      <c r="N510" s="2"/>
+      <c r="O510" s="2"/>
+      <c r="P510" s="2"/>
+      <c r="Q510" s="2"/>
+      <c r="R510" s="2"/>
+      <c r="S510" s="2"/>
+      <c r="T510" s="2"/>
+      <c r="U510" s="2"/>
+      <c r="V510" s="2"/>
+      <c r="W510" s="2"/>
+      <c r="X510" s="2"/>
+      <c r="Y510" s="2"/>
+      <c r="Z510" s="2"/>
+      <c r="AA510" s="2"/>
+    </row>
+    <row r="511" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+      <c r="I511" s="2"/>
+      <c r="J511" s="2"/>
+      <c r="K511" s="2"/>
+      <c r="L511" s="2"/>
+      <c r="M511" s="2"/>
+      <c r="N511" s="2"/>
+      <c r="O511" s="2"/>
+      <c r="P511" s="2"/>
+      <c r="Q511" s="2"/>
+      <c r="R511" s="2"/>
+      <c r="S511" s="2"/>
+      <c r="T511" s="2"/>
+      <c r="U511" s="2"/>
+      <c r="V511" s="2"/>
+      <c r="W511" s="2"/>
+      <c r="X511" s="2"/>
+      <c r="Y511" s="2"/>
+      <c r="Z511" s="2"/>
+      <c r="AA511" s="2"/>
+    </row>
+    <row r="512" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+      <c r="I512" s="2"/>
+      <c r="J512" s="2"/>
+      <c r="K512" s="2"/>
+      <c r="L512" s="2"/>
+      <c r="M512" s="2"/>
+      <c r="N512" s="2"/>
+      <c r="O512" s="2"/>
+      <c r="P512" s="2"/>
+      <c r="Q512" s="2"/>
+      <c r="R512" s="2"/>
+      <c r="S512" s="2"/>
+      <c r="T512" s="2"/>
+      <c r="U512" s="2"/>
+      <c r="V512" s="2"/>
+      <c r="W512" s="2"/>
+      <c r="X512" s="2"/>
+      <c r="Y512" s="2"/>
+      <c r="Z512" s="2"/>
+      <c r="AA512" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Gestion/Mega_planif.xlsx
+++ b/Gestion/Mega_planif.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="231">
   <si>
     <t>Objectif</t>
   </si>
@@ -719,27 +719,6 @@
   </si>
   <si>
     <t xml:space="preserve">Constante </t>
-  </si>
-  <si>
-    <t>Détection des notes</t>
-  </si>
-  <si>
-    <t>2.T.2.6</t>
-  </si>
-  <si>
-    <t>Les 7 notes</t>
-  </si>
-  <si>
-    <t>2.T.2.8</t>
-  </si>
-  <si>
-    <t>Détection exacte</t>
-  </si>
-  <si>
-    <t>1.T.2.6</t>
-  </si>
-  <si>
-    <t>Détection de différence</t>
   </si>
 </sst>
 </file>
@@ -778,7 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,9 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1273,13 +1250,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA512"/>
+  <dimension ref="A1:AA509"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1293,7 +1270,7 @@
     <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1287,7 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="2:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1304,7 @@
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
     </row>
-    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1325,7 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1381,8 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
       <c r="B5">
         <v>1</v>
       </c>
@@ -1436,7 +1414,8 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1467,7 +1446,8 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1498,7 +1478,8 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1535,7 +1516,8 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1574,7 +1556,8 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1611,7 +1594,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -1642,7 +1625,8 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1679,7 +1663,8 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1716,7 +1701,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1753,32 +1738,31 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="2"/>
+      <c r="F15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1792,10 +1776,11 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1815,9 +1800,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1831,32 +1814,24 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="20" t="s">
-        <v>236</v>
-      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>43</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
-        <v>237</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1870,18 +1845,24 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1901,24 +1882,18 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
+    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1938,14 +1913,14 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="2"/>
+    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1969,22 +1944,29 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <f>L21*K21</f>
+        <v>8</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -2000,14 +1982,14 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -2017,11 +1999,11 @@
         <v>2</v>
       </c>
       <c r="L22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <f>L22*K22</f>
-        <v>8</v>
+        <f t="shared" ref="M22:M23" si="0">L22*K22</f>
+        <v>2</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2038,14 +2020,14 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2058,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23:M24" si="0">L23*K23</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="N23" s="2"/>
@@ -2076,29 +2058,22 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="D24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="2">
-        <v>2</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2114,22 +2089,29 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <f>L25*K25</f>
+        <v>2</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2145,14 +2127,14 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2162,11 +2144,11 @@
         <v>2</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" s="2">
-        <f>L26*K26</f>
-        <v>2</v>
+        <f t="shared" ref="M26:M27" si="1">L26*K26</f>
+        <v>8</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2183,14 +2165,14 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2200,11 +2182,11 @@
         <v>2</v>
       </c>
       <c r="L27" s="2">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="1"/>
         <v>4</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" ref="M27:M28" si="1">L27*K27</f>
-        <v>8</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2221,29 +2203,22 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="2">
-        <v>2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>2</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2259,22 +2234,29 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F29" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <f>L29*K29</f>
+        <v>2</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2290,14 +2272,14 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2307,11 +2289,11 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M30" s="2">
-        <f>L30*K30</f>
-        <v>2</v>
+        <f t="shared" ref="M30:M31" si="2">L30*K30</f>
+        <v>5</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2328,14 +2310,14 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2345,11 +2327,11 @@
         <v>2</v>
       </c>
       <c r="L31" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" ref="M31:M32" si="2">L31*K31</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2366,29 +2348,23 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="2">
-        <v>2</v>
-      </c>
-      <c r="L32" s="2">
-        <v>3</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2404,20 +2380,19 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2"/>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2436,14 +2411,14 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C34" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2"/>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2467,16 +2442,18 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2498,14 +2475,14 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>229</v>
@@ -2531,14 +2508,14 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>229</v>
@@ -2564,14 +2541,14 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>229</v>
@@ -2597,18 +2574,16 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2630,16 +2605,18 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2661,14 +2638,14 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>229</v>
@@ -2694,14 +2671,14 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>229</v>
@@ -2727,14 +2704,14 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>229</v>
@@ -2760,20 +2737,24 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2793,24 +2774,20 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2830,32 +2807,24 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -2869,32 +2838,24 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J47" s="6"/>
+      <c r="D47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2908,28 +2869,31 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="E48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="K48" s="2">
+        <v>2</v>
+      </c>
+      <c r="L48" s="2">
+        <v>4</v>
+      </c>
+      <c r="M48" s="2">
+        <f>L48*K48</f>
+        <v>8</v>
+      </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2944,21 +2908,28 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C49" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="F49" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="K49" s="2">
+        <v>2</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" ref="M49:M50" si="3">L49*K49</f>
+        <v>2</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -2976,20 +2947,27 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F50" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="K50" s="2">
+        <v>2</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -3007,27 +2985,20 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="D51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2">
-        <v>2</v>
-      </c>
-      <c r="L51" s="2">
-        <v>4</v>
-      </c>
-      <c r="M51" s="2">
-        <f>L51*K51</f>
-        <v>8</v>
-      </c>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3047,10 +3018,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3060,11 +3031,11 @@
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" ref="M52:M53" si="3">L52*K52</f>
-        <v>2</v>
+        <f>L52*K52</f>
+        <v>6</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3085,10 +3056,10 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3098,11 +3069,11 @@
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" ref="M53:M54" si="4">L53*K53</f>
+        <v>20</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3121,20 +3092,27 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="K54" s="2">
+        <v>2</v>
+      </c>
+      <c r="L54" s="2">
+        <v>2</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3152,27 +3130,20 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="D55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2">
-        <v>2</v>
-      </c>
-      <c r="L55" s="2">
-        <v>3</v>
-      </c>
-      <c r="M55" s="2">
-        <f>L55*K55</f>
-        <v>6</v>
-      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3192,10 +3163,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3205,11 +3176,11 @@
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" ref="M56:M57" si="4">L56*K56</f>
-        <v>20</v>
+        <f>L56*K56</f>
+        <v>6</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -3230,10 +3201,10 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3243,11 +3214,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="M57:M58" si="5">L57*K57</f>
+        <v>12</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3266,20 +3237,27 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="K58" s="2">
+        <v>2</v>
+      </c>
+      <c r="L58" s="2">
+        <v>4</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3296,28 +3274,22 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>89</v>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2">
-        <v>2</v>
-      </c>
-      <c r="L59" s="2">
-        <v>3</v>
-      </c>
-      <c r="M59" s="2">
-        <f>L59*K59</f>
-        <v>6</v>
-      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3334,28 +3306,22 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>91</v>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2">
-        <v>2</v>
-      </c>
-      <c r="L60" s="2">
-        <v>6</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" ref="M60:M61" si="5">L60*K60</f>
-        <v>12</v>
-      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -3372,28 +3338,22 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B61" s="3"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>93</v>
+      <c r="D61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2">
-        <v>2</v>
-      </c>
-      <c r="L61" s="2">
-        <v>4</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -3409,19 +3369,25 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B62" s="3">
-        <v>3</v>
-      </c>
+    <row r="62" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="3"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3443,17 +3409,23 @@
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
-      <c r="C63" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3476,16 +3448,22 @@
     <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3505,25 +3483,21 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3543,24 +3517,23 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B66" s="3"/>
+    <row r="66" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>177</v>
+        <v>189</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3581,21 +3554,20 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B67" s="3"/>
+    <row r="67" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>228</v>
+        <v>206</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>66</v>
@@ -3619,19 +3591,16 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B68" s="3"/>
+    <row r="68" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="D68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3657,19 +3626,19 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>190</v>
+        <v>161</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3694,19 +3663,19 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3730,14 +3699,14 @@
     <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3762,13 +3731,13 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>215</v>
@@ -3795,23 +3764,23 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>195</v>
+        <v>224</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3835,15 +3804,12 @@
     <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="2"/>
+        <v>156</v>
+      </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3867,19 +3833,19 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3900,23 +3866,23 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>226</v>
+        <v>210</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3939,13 +3905,18 @@
     </row>
     <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -3967,22 +3938,16 @@
     </row>
     <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="D78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -4006,20 +3971,16 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4043,10 +4004,10 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>229</v>
@@ -4074,14 +4035,16 @@
     </row>
     <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
-      <c r="D81" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4105,16 +4068,14 @@
     </row>
     <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="D82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4140,16 +4101,20 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4171,17 +4136,15 @@
     </row>
     <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="D84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H84" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -4204,16 +4167,22 @@
     </row>
     <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
-      <c r="D85" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4237,19 +4206,19 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -4270,17 +4239,18 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>219</v>
-      </c>
+    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B87" s="3"/>
+      <c r="C87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="2" t="s">
-        <v>197</v>
+      <c r="F87" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -4301,24 +4271,19 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B88" s="3"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="D88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4338,28 +4303,30 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B89" s="3"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
+      <c r="K89" s="2">
+        <v>2</v>
+      </c>
+      <c r="L89" s="2">
+        <v>4</v>
+      </c>
+      <c r="M89" s="2">
+        <f>L89*K89</f>
+        <v>8</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -4377,21 +4344,28 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
-      <c r="C90" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F90" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="K90" s="2">
+        <v>2</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2">
+        <f t="shared" ref="M90:M91" si="6">L90*K90</f>
+        <v>2</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -4410,20 +4384,27 @@
     <row r="91" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F91" s="5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
+      <c r="K91" s="2">
+        <v>2</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -4442,27 +4423,20 @@
     <row r="92" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="D92" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2">
-        <v>2</v>
-      </c>
-      <c r="L92" s="2">
-        <v>4</v>
-      </c>
-      <c r="M92" s="2">
-        <f>L92*K92</f>
-        <v>8</v>
-      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -4483,10 +4457,10 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4496,11 +4470,11 @@
         <v>2</v>
       </c>
       <c r="L93" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" ref="M93:M94" si="6">L93*K93</f>
-        <v>2</v>
+        <f>L93*K93</f>
+        <v>6</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4522,10 +4496,10 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4535,11 +4509,11 @@
         <v>2</v>
       </c>
       <c r="L94" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" ref="M94:M95" si="7">L94*K94</f>
+        <v>20</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -4559,20 +4533,27 @@
     <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="F95" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="K95" s="2">
+        <v>2</v>
+      </c>
+      <c r="L95" s="2">
+        <v>2</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4591,27 +4572,20 @@
     <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2">
-        <v>2</v>
-      </c>
-      <c r="L96" s="2">
-        <v>3</v>
-      </c>
-      <c r="M96" s="2">
-        <f>L96*K96</f>
-        <v>6</v>
-      </c>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4632,10 +4606,10 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4645,11 +4619,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" ref="M97:M98" si="7">L97*K97</f>
-        <v>20</v>
+        <f>L97*K97</f>
+        <v>6</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4671,10 +4645,10 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4684,11 +4658,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" ref="M98:M99" si="8">L98*K98</f>
+        <v>12</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4708,20 +4682,27 @@
     <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F99" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="K99" s="2">
+        <v>2</v>
+      </c>
+      <c r="L99" s="2">
+        <v>4</v>
+      </c>
+      <c r="M99" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4738,29 +4719,17 @@
       <c r="AA99" s="2"/>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2">
-        <v>2</v>
-      </c>
-      <c r="L100" s="2">
-        <v>3</v>
-      </c>
-      <c r="M100" s="2">
-        <f>L100*K100</f>
-        <v>6</v>
-      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -4777,29 +4746,17 @@
       <c r="AA100" s="2"/>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2">
-        <v>2</v>
-      </c>
-      <c r="L101" s="2">
-        <v>6</v>
-      </c>
-      <c r="M101" s="2">
-        <f t="shared" ref="M101:M102" si="8">L101*K101</f>
-        <v>12</v>
-      </c>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -4816,29 +4773,17 @@
       <c r="AA101" s="2"/>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2">
-        <v>2</v>
-      </c>
-      <c r="L102" s="2">
-        <v>4</v>
-      </c>
-      <c r="M102" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -15842,87 +15787,6 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
-    </row>
-    <row r="510" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-      <c r="E510" s="2"/>
-      <c r="F510" s="2"/>
-      <c r="G510" s="2"/>
-      <c r="H510" s="2"/>
-      <c r="I510" s="2"/>
-      <c r="J510" s="2"/>
-      <c r="K510" s="2"/>
-      <c r="L510" s="2"/>
-      <c r="M510" s="2"/>
-      <c r="N510" s="2"/>
-      <c r="O510" s="2"/>
-      <c r="P510" s="2"/>
-      <c r="Q510" s="2"/>
-      <c r="R510" s="2"/>
-      <c r="S510" s="2"/>
-      <c r="T510" s="2"/>
-      <c r="U510" s="2"/>
-      <c r="V510" s="2"/>
-      <c r="W510" s="2"/>
-      <c r="X510" s="2"/>
-      <c r="Y510" s="2"/>
-      <c r="Z510" s="2"/>
-      <c r="AA510" s="2"/>
-    </row>
-    <row r="511" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="2"/>
-      <c r="F511" s="2"/>
-      <c r="G511" s="2"/>
-      <c r="H511" s="2"/>
-      <c r="I511" s="2"/>
-      <c r="J511" s="2"/>
-      <c r="K511" s="2"/>
-      <c r="L511" s="2"/>
-      <c r="M511" s="2"/>
-      <c r="N511" s="2"/>
-      <c r="O511" s="2"/>
-      <c r="P511" s="2"/>
-      <c r="Q511" s="2"/>
-      <c r="R511" s="2"/>
-      <c r="S511" s="2"/>
-      <c r="T511" s="2"/>
-      <c r="U511" s="2"/>
-      <c r="V511" s="2"/>
-      <c r="W511" s="2"/>
-      <c r="X511" s="2"/>
-      <c r="Y511" s="2"/>
-      <c r="Z511" s="2"/>
-      <c r="AA511" s="2"/>
-    </row>
-    <row r="512" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2"/>
-      <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
-      <c r="M512" s="2"/>
-      <c r="N512" s="2"/>
-      <c r="O512" s="2"/>
-      <c r="P512" s="2"/>
-      <c r="Q512" s="2"/>
-      <c r="R512" s="2"/>
-      <c r="S512" s="2"/>
-      <c r="T512" s="2"/>
-      <c r="U512" s="2"/>
-      <c r="V512" s="2"/>
-      <c r="W512" s="2"/>
-      <c r="X512" s="2"/>
-      <c r="Y512" s="2"/>
-      <c r="Z512" s="2"/>
-      <c r="AA512" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Gestion/Mega_planif.xlsx
+++ b/Gestion/Mega_planif.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\GitHub\ProjetS5\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LuisFelipe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="238">
   <si>
     <t>Objectif</t>
   </si>
@@ -719,6 +719,27 @@
   </si>
   <si>
     <t xml:space="preserve">Constante </t>
+  </si>
+  <si>
+    <t>Détection des notes</t>
+  </si>
+  <si>
+    <t>2.T.2.6</t>
+  </si>
+  <si>
+    <t>Les 7 notes</t>
+  </si>
+  <si>
+    <t>2.T.2.8</t>
+  </si>
+  <si>
+    <t>Détection exacte</t>
+  </si>
+  <si>
+    <t>1.T.2.6</t>
+  </si>
+  <si>
+    <t>Détection de différence</t>
   </si>
 </sst>
 </file>
@@ -757,7 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +895,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,7 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1207,36 +1230,36 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1250,13 +1273,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA509"/>
+  <dimension ref="A1:AA512"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1270,62 +1293,62 @@
     <col min="12" max="12" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="2:27" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1381,8 +1404,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1414,8 +1436,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1446,8 +1467,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -1478,8 +1498,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -1516,8 +1535,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -1556,8 +1574,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -1594,7 +1611,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -1625,8 +1642,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1663,8 +1679,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1701,7 +1716,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1738,31 +1753,32 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+    <row r="15" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1776,11 +1792,10 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -1800,7 +1815,9 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1814,24 +1831,32 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17" t="s">
+        <v>236</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1845,24 +1870,18 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1882,18 +1901,24 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>68</v>
-      </c>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1913,14 +1938,14 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
+    <row r="20" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1944,29 +1969,22 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="2">
-        <v>2</v>
-      </c>
-      <c r="L21" s="2">
-        <v>4</v>
-      </c>
-      <c r="M21" s="2">
-        <f>L21*K21</f>
-        <v>8</v>
-      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1982,14 +2000,14 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1999,11 +2017,11 @@
         <v>2</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" ref="M22:M23" si="0">L22*K22</f>
-        <v>2</v>
+        <f>L22*K22</f>
+        <v>8</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2020,14 +2038,14 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2040,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M23:M24" si="0">L23*K23</f>
         <v>2</v>
       </c>
       <c r="N23" s="2"/>
@@ -2058,22 +2076,29 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -2089,29 +2114,22 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <f>L25*K25</f>
-        <v>2</v>
-      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -2127,14 +2145,14 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2144,11 +2162,11 @@
         <v>2</v>
       </c>
       <c r="L26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" ref="M26:M27" si="1">L26*K26</f>
-        <v>8</v>
+        <f>L26*K26</f>
+        <v>2</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2165,14 +2183,14 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2182,11 +2200,11 @@
         <v>2</v>
       </c>
       <c r="L27" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="M27:M28" si="1">L27*K27</f>
+        <v>8</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2203,22 +2221,29 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F28" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2234,29 +2259,22 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="2">
-        <v>2</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
-        <f>L29*K29</f>
-        <v>2</v>
-      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -2272,14 +2290,14 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2289,11 +2307,11 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" ref="M30:M31" si="2">L30*K30</f>
-        <v>5</v>
+        <f>L30*K30</f>
+        <v>2</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2310,14 +2328,14 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2327,11 +2345,11 @@
         <v>2</v>
       </c>
       <c r="L31" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" ref="M31:M32" si="2">L31*K31</f>
+        <v>5</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2348,23 +2366,29 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>2</v>
-      </c>
+    <row r="32" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="2">
+        <v>2</v>
+      </c>
+      <c r="L32" s="2">
+        <v>3</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -2380,19 +2404,20 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2411,14 +2436,14 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>95</v>
-      </c>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2442,18 +2467,16 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2475,14 +2498,14 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>229</v>
@@ -2508,14 +2531,14 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>229</v>
@@ -2541,14 +2564,14 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>229</v>
@@ -2574,16 +2597,18 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2605,18 +2630,16 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="D40" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2638,14 +2661,14 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>229</v>
@@ -2671,14 +2694,14 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>229</v>
@@ -2704,14 +2727,14 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>229</v>
@@ -2737,24 +2760,20 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2774,20 +2793,24 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="3:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2807,24 +2830,32 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C46" s="2" t="s">
-        <v>105</v>
-      </c>
+    <row r="46" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="E46" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="O46" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -2838,24 +2869,32 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="6"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="O47" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2869,31 +2908,28 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="2"/>
+      <c r="E48" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48" s="2">
-        <v>2</v>
-      </c>
-      <c r="L48" s="2">
-        <v>4</v>
-      </c>
-      <c r="M48" s="2">
-        <f>L48*K48</f>
-        <v>8</v>
-      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2908,28 +2944,21 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49" s="2">
-        <v>2</v>
-      </c>
-      <c r="L49" s="2">
-        <v>1</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" ref="M49:M50" si="3">L49*K49</f>
-        <v>2</v>
-      </c>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -2947,27 +2976,20 @@
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="D50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50" s="2">
-        <v>2</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -2985,20 +3007,27 @@
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="K51" s="2">
+        <v>2</v>
+      </c>
+      <c r="L51" s="2">
+        <v>4</v>
+      </c>
+      <c r="M51" s="2">
+        <f>L51*K51</f>
+        <v>8</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -3018,10 +3047,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -3031,11 +3060,11 @@
         <v>2</v>
       </c>
       <c r="L52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
-        <f>L52*K52</f>
-        <v>6</v>
+        <f t="shared" ref="M52:M53" si="3">L52*K52</f>
+        <v>2</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3056,10 +3085,10 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3069,11 +3098,11 @@
         <v>2</v>
       </c>
       <c r="L53" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" ref="M53:M54" si="4">L53*K53</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3092,27 +3121,20 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="D54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="2">
-        <v>2</v>
-      </c>
-      <c r="L54" s="2">
-        <v>2</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -3130,20 +3152,27 @@
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
-      <c r="D55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>3</v>
+      </c>
+      <c r="M55" s="2">
+        <f>L55*K55</f>
+        <v>6</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -3163,10 +3192,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3176,11 +3205,11 @@
         <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M56" s="2">
-        <f>L56*K56</f>
-        <v>6</v>
+        <f t="shared" ref="M56:M57" si="4">L56*K56</f>
+        <v>20</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -3201,10 +3230,10 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -3214,11 +3243,11 @@
         <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" ref="M57:M58" si="5">L57*K57</f>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3237,27 +3266,20 @@
     </row>
     <row r="58" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="2">
-        <v>2</v>
-      </c>
-      <c r="L58" s="2">
-        <v>4</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -3274,22 +3296,28 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
-        <v>3</v>
-      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>148</v>
+      <c r="E59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="K59" s="2">
+        <v>2</v>
+      </c>
+      <c r="L59" s="2">
+        <v>3</v>
+      </c>
+      <c r="M59" s="2">
+        <f>L59*K59</f>
+        <v>6</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -3306,22 +3334,28 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>149</v>
+      <c r="E60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="K60" s="2">
+        <v>2</v>
+      </c>
+      <c r="L60" s="2">
+        <v>6</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" ref="M60:M61" si="5">L60*K60</f>
+        <v>12</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -3338,22 +3372,28 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
-        <v>150</v>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="K61" s="2">
+        <v>2</v>
+      </c>
+      <c r="L61" s="2">
+        <v>4</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -3369,25 +3409,19 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="3"/>
+    <row r="62" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B62" s="3">
+        <v>3</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3409,23 +3443,17 @@
     </row>
     <row r="63" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -3448,22 +3476,16 @@
     <row r="64" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B64" s="3"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -3483,21 +3505,25 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="3"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3517,23 +3543,24 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B66" s="3"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>191</v>
+        <v>158</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3554,20 +3581,21 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B67" s="3"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>193</v>
+        <v>227</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>66</v>
@@ -3591,16 +3619,19 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B68" s="3"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3626,19 +3657,19 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3663,19 +3694,19 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>195</v>
+        <v>206</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3699,14 +3730,14 @@
     <row r="71" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3731,13 +3762,13 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>214</v>
+        <v>161</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>215</v>
@@ -3764,23 +3795,23 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>226</v>
+        <v>162</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3804,12 +3835,15 @@
     <row r="74" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>156</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -3833,19 +3867,19 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3866,23 +3900,23 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>212</v>
+        <v>224</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3905,18 +3939,13 @@
     </row>
     <row r="77" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="D77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+        <v>156</v>
+      </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -3938,16 +3967,22 @@
     </row>
     <row r="78" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -3971,16 +4006,20 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -4004,10 +4043,10 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>229</v>
@@ -4035,16 +4074,14 @@
     </row>
     <row r="81" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="D81" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>229</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4068,14 +4105,16 @@
     </row>
     <row r="82" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4101,20 +4140,16 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4136,15 +4171,17 @@
     </row>
     <row r="84" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -4167,22 +4204,16 @@
     </row>
     <row r="85" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="D85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4206,19 +4237,19 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -4239,18 +4270,17 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B87" s="3"/>
-      <c r="C87" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="2"/>
+    <row r="87" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="5" t="s">
-        <v>69</v>
+      <c r="F87" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -4271,19 +4301,24 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B88" s="3"/>
+    <row r="88" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4303,30 +4338,28 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B89" s="3"/>
+    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="2">
-        <v>2</v>
-      </c>
-      <c r="L89" s="2">
-        <v>4</v>
-      </c>
-      <c r="M89" s="2">
-        <f>L89*K89</f>
-        <v>8</v>
-      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -4344,28 +4377,21 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="E90" s="2"/>
       <c r="F90" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="2">
-        <v>2</v>
-      </c>
-      <c r="L90" s="2">
-        <v>1</v>
-      </c>
-      <c r="M90" s="2">
-        <f t="shared" ref="M90:M91" si="6">L90*K90</f>
-        <v>2</v>
-      </c>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -4384,27 +4410,20 @@
     <row r="91" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B91" s="3"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="D91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="2"/>
       <c r="F91" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="2">
-        <v>2</v>
-      </c>
-      <c r="L91" s="2">
-        <v>1</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -4423,20 +4442,27 @@
     <row r="92" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F92" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="K92" s="2">
+        <v>2</v>
+      </c>
+      <c r="L92" s="2">
+        <v>4</v>
+      </c>
+      <c r="M92" s="2">
+        <f>L92*K92</f>
+        <v>8</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -4457,10 +4483,10 @@
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -4470,11 +4496,11 @@
         <v>2</v>
       </c>
       <c r="L93" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M93" s="2">
-        <f>L93*K93</f>
-        <v>6</v>
+        <f t="shared" ref="M93:M94" si="6">L93*K93</f>
+        <v>2</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -4496,10 +4522,10 @@
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -4509,11 +4535,11 @@
         <v>2</v>
       </c>
       <c r="L94" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" ref="M94:M95" si="7">L94*K94</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -4533,27 +4559,20 @@
     <row r="95" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="D95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="2">
-        <v>2</v>
-      </c>
-      <c r="L95" s="2">
-        <v>2</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -4572,20 +4591,27 @@
     <row r="96" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B96" s="3"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="F96" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <v>3</v>
+      </c>
+      <c r="M96" s="2">
+        <f>L96*K96</f>
+        <v>6</v>
+      </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -4606,10 +4632,10 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -4619,11 +4645,11 @@
         <v>2</v>
       </c>
       <c r="L97" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M97" s="2">
-        <f>L97*K97</f>
-        <v>6</v>
+        <f t="shared" ref="M97:M98" si="7">L97*K97</f>
+        <v>20</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -4645,10 +4671,10 @@
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -4658,11 +4684,11 @@
         <v>2</v>
       </c>
       <c r="L98" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" ref="M98:M99" si="8">L98*K98</f>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -4682,27 +4708,20 @@
     <row r="99" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="D99" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="2">
-        <v>2</v>
-      </c>
-      <c r="L99" s="2">
-        <v>4</v>
-      </c>
-      <c r="M99" s="2">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -4719,17 +4738,29 @@
       <c r="AA99" s="2"/>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B100" s="3"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="K100" s="2">
+        <v>2</v>
+      </c>
+      <c r="L100" s="2">
+        <v>3</v>
+      </c>
+      <c r="M100" s="2">
+        <f>L100*K100</f>
+        <v>6</v>
+      </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -4746,17 +4777,29 @@
       <c r="AA100" s="2"/>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="K101" s="2">
+        <v>2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>6</v>
+      </c>
+      <c r="M101" s="2">
+        <f t="shared" ref="M101:M102" si="8">L101*K101</f>
+        <v>12</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -4773,17 +4816,29 @@
       <c r="AA101" s="2"/>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="K102" s="2">
+        <v>2</v>
+      </c>
+      <c r="L102" s="2">
+        <v>4</v>
+      </c>
+      <c r="M102" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -15787,6 +15842,87 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
+    </row>
+    <row r="510" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C510" s="2"/>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+      <c r="K510" s="2"/>
+      <c r="L510" s="2"/>
+      <c r="M510" s="2"/>
+      <c r="N510" s="2"/>
+      <c r="O510" s="2"/>
+      <c r="P510" s="2"/>
+      <c r="Q510" s="2"/>
+      <c r="R510" s="2"/>
+      <c r="S510" s="2"/>
+      <c r="T510" s="2"/>
+      <c r="U510" s="2"/>
+      <c r="V510" s="2"/>
+      <c r="W510" s="2"/>
+      <c r="X510" s="2"/>
+      <c r="Y510" s="2"/>
+      <c r="Z510" s="2"/>
+      <c r="AA510" s="2"/>
+    </row>
+    <row r="511" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C511" s="2"/>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+      <c r="I511" s="2"/>
+      <c r="J511" s="2"/>
+      <c r="K511" s="2"/>
+      <c r="L511" s="2"/>
+      <c r="M511" s="2"/>
+      <c r="N511" s="2"/>
+      <c r="O511" s="2"/>
+      <c r="P511" s="2"/>
+      <c r="Q511" s="2"/>
+      <c r="R511" s="2"/>
+      <c r="S511" s="2"/>
+      <c r="T511" s="2"/>
+      <c r="U511" s="2"/>
+      <c r="V511" s="2"/>
+      <c r="W511" s="2"/>
+      <c r="X511" s="2"/>
+      <c r="Y511" s="2"/>
+      <c r="Z511" s="2"/>
+      <c r="AA511" s="2"/>
+    </row>
+    <row r="512" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="C512" s="2"/>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+      <c r="I512" s="2"/>
+      <c r="J512" s="2"/>
+      <c r="K512" s="2"/>
+      <c r="L512" s="2"/>
+      <c r="M512" s="2"/>
+      <c r="N512" s="2"/>
+      <c r="O512" s="2"/>
+      <c r="P512" s="2"/>
+      <c r="Q512" s="2"/>
+      <c r="R512" s="2"/>
+      <c r="S512" s="2"/>
+      <c r="T512" s="2"/>
+      <c r="U512" s="2"/>
+      <c r="V512" s="2"/>
+      <c r="W512" s="2"/>
+      <c r="X512" s="2"/>
+      <c r="Y512" s="2"/>
+      <c r="Z512" s="2"/>
+      <c r="AA512" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
